--- a/database/industries/urea/shapdis/product/monthly.xlsx
+++ b/database/industries/urea/shapdis/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\urea\shapdis\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\shapdis\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B110DD01-8EBA-4D5D-801D-893F8F09194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="74">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -246,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,7 +440,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -451,7 +452,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -498,6 +499,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -533,6 +551,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -684,17 +719,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -749,7 +784,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -806,7 +841,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -863,7 +898,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -918,7 +953,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -975,7 +1010,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1067,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1087,7 +1122,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1244,7 +1279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1299,7 +1334,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1356,7 +1391,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1515,7 +1550,7 @@
         <v>180385</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1674,7 +1709,7 @@
         <v>286177</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
@@ -1731,13 +1766,11 @@
       <c r="BA13" s="15"/>
       <c r="BB13" s="15"/>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
         <v>60</v>
@@ -1890,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
         <v>61</v>
       </c>
@@ -2047,7 +2080,7 @@
         <v>466562</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2102,7 +2135,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2157,7 +2190,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2212,7 +2245,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>62</v>
       </c>
@@ -2369,7 +2402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2424,7 +2457,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>62</v>
       </c>
@@ -2481,7 +2514,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>55</v>
       </c>
@@ -2640,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>57</v>
       </c>
@@ -2799,7 +2832,7 @@
         <v>181773</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>58</v>
       </c>
@@ -2856,13 +2889,11 @@
       <c r="BA24" s="15"/>
       <c r="BB24" s="15"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
         <v>60</v>
@@ -3015,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>63</v>
       </c>
@@ -3072,13 +3103,11 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>60</v>
@@ -3231,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
@@ -3388,7 +3417,7 @@
         <v>181773</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3443,7 +3472,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3498,7 +3527,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3553,7 +3582,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>65</v>
       </c>
@@ -3710,7 +3739,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3765,7 +3794,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>65</v>
       </c>
@@ -3822,7 +3851,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -3981,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -4140,7 +4169,7 @@
         <v>27822537</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>67</v>
       </c>
@@ -4197,7 +4226,7 @@
       <c r="BA37" s="15"/>
       <c r="BB37" s="15"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
         <v>59</v>
       </c>
@@ -4356,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>68</v>
       </c>
@@ -4413,7 +4442,7 @@
       <c r="BA39" s="15"/>
       <c r="BB39" s="15"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>64</v>
       </c>
@@ -4572,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>69</v>
       </c>
@@ -4629,7 +4658,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>70</v>
       </c>
@@ -4788,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>61</v>
       </c>
@@ -4945,7 +4974,7 @@
         <v>27822537</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5000,7 +5029,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5055,7 +5084,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5110,7 +5139,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>71</v>
       </c>
@@ -5267,7 +5296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5322,7 +5351,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>72</v>
       </c>
@@ -5379,7 +5408,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>55</v>
       </c>
@@ -5538,7 +5567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>57</v>
       </c>

--- a/database/industries/urea/shapdis/product/monthly.xlsx
+++ b/database/industries/urea/shapdis/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\shapdis\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B110DD01-8EBA-4D5D-801D-893F8F09194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD148B52-D8F7-44CA-9F9E-08294C7B108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="74">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 12 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 1 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 2 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 3 منتهی به 1401/09</t>
   </si>
   <si>
     <t>آمونیاک</t>
@@ -1400,154 +1400,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>177672</v>
+        <v>149501</v>
       </c>
       <c r="F11" s="11">
-        <v>120067</v>
+        <v>173805</v>
       </c>
       <c r="G11" s="11">
-        <v>149501</v>
+        <v>106173</v>
       </c>
       <c r="H11" s="11">
-        <v>173805</v>
+        <v>135946</v>
       </c>
       <c r="I11" s="11">
-        <v>106173</v>
+        <v>150049</v>
       </c>
       <c r="J11" s="11">
-        <v>135946</v>
+        <v>149827</v>
       </c>
       <c r="K11" s="11">
-        <v>150049</v>
+        <v>178925</v>
       </c>
       <c r="L11" s="11">
-        <v>149827</v>
+        <v>174933</v>
       </c>
       <c r="M11" s="11">
-        <v>178925</v>
+        <v>110779</v>
       </c>
       <c r="N11" s="11">
-        <v>174933</v>
+        <v>171922</v>
       </c>
       <c r="O11" s="11">
-        <v>110779</v>
+        <v>159236</v>
       </c>
       <c r="P11" s="11">
-        <v>171922</v>
+        <v>135124</v>
       </c>
       <c r="Q11" s="11">
-        <v>159236</v>
+        <v>149173</v>
       </c>
       <c r="R11" s="11">
-        <v>135124</v>
+        <v>125268</v>
       </c>
       <c r="S11" s="11">
-        <v>149173</v>
+        <v>102544</v>
       </c>
       <c r="T11" s="11">
-        <v>125268</v>
+        <v>37353</v>
       </c>
       <c r="U11" s="11">
-        <v>102544</v>
+        <v>171550</v>
       </c>
       <c r="V11" s="11">
-        <v>37353</v>
+        <v>191766</v>
       </c>
       <c r="W11" s="11">
-        <v>171550</v>
+        <v>166090</v>
       </c>
       <c r="X11" s="11">
-        <v>191766</v>
+        <v>171488</v>
       </c>
       <c r="Y11" s="11">
-        <v>166090</v>
+        <v>125841</v>
       </c>
       <c r="Z11" s="11">
-        <v>171488</v>
+        <v>166934</v>
       </c>
       <c r="AA11" s="11">
-        <v>125841</v>
+        <v>180532</v>
       </c>
       <c r="AB11" s="11">
-        <v>166934</v>
+        <v>180235</v>
       </c>
       <c r="AC11" s="11">
-        <v>180532</v>
+        <v>177449</v>
       </c>
       <c r="AD11" s="11">
-        <v>180235</v>
+        <v>168304</v>
       </c>
       <c r="AE11" s="11">
-        <v>177449</v>
+        <v>134863</v>
       </c>
       <c r="AF11" s="11">
-        <v>168304</v>
+        <v>179834</v>
       </c>
       <c r="AG11" s="11">
-        <v>134863</v>
+        <v>169858</v>
       </c>
       <c r="AH11" s="11">
-        <v>179834</v>
+        <v>191388</v>
       </c>
       <c r="AI11" s="11">
-        <v>169858</v>
+        <v>179313</v>
       </c>
       <c r="AJ11" s="11">
-        <v>191388</v>
+        <v>183529</v>
       </c>
       <c r="AK11" s="11">
-        <v>179313</v>
+        <v>164775</v>
       </c>
       <c r="AL11" s="11">
-        <v>183529</v>
+        <v>178647</v>
       </c>
       <c r="AM11" s="11">
-        <v>164775</v>
+        <v>180718</v>
       </c>
       <c r="AN11" s="11">
-        <v>178647</v>
+        <v>182476</v>
       </c>
       <c r="AO11" s="11">
-        <v>180718</v>
+        <v>184015</v>
       </c>
       <c r="AP11" s="11">
-        <v>182476</v>
+        <v>134757</v>
       </c>
       <c r="AQ11" s="11">
-        <v>184015</v>
+        <v>116691</v>
       </c>
       <c r="AR11" s="11">
-        <v>134757</v>
+        <v>126726</v>
       </c>
       <c r="AS11" s="11">
-        <v>116691</v>
+        <v>178333</v>
       </c>
       <c r="AT11" s="11">
-        <v>126726</v>
+        <v>187614</v>
       </c>
       <c r="AU11" s="11">
-        <v>178333</v>
+        <v>180706</v>
       </c>
       <c r="AV11" s="11">
-        <v>187614</v>
+        <v>179516</v>
       </c>
       <c r="AW11" s="11">
-        <v>180706</v>
+        <v>176477</v>
       </c>
       <c r="AX11" s="11">
-        <v>179516</v>
+        <v>178057</v>
       </c>
       <c r="AY11" s="11">
-        <v>176477</v>
+        <v>187285</v>
       </c>
       <c r="AZ11" s="11">
-        <v>178057</v>
+        <v>180385</v>
       </c>
       <c r="BA11" s="11">
-        <v>187285</v>
+        <v>145998</v>
       </c>
       <c r="BB11" s="11">
-        <v>180385</v>
+        <v>159553</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1559,154 +1559,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>272897</v>
+        <v>226360</v>
       </c>
       <c r="F12" s="13">
-        <v>184332</v>
+        <v>279389</v>
       </c>
       <c r="G12" s="13">
-        <v>226360</v>
+        <v>169312</v>
       </c>
       <c r="H12" s="13">
-        <v>279389</v>
+        <v>222725</v>
       </c>
       <c r="I12" s="13">
-        <v>169312</v>
+        <v>266591</v>
       </c>
       <c r="J12" s="13">
-        <v>222725</v>
+        <v>252220</v>
       </c>
       <c r="K12" s="13">
-        <v>266591</v>
+        <v>289121</v>
       </c>
       <c r="L12" s="13">
-        <v>252220</v>
+        <v>272248</v>
       </c>
       <c r="M12" s="13">
-        <v>289121</v>
+        <v>172083</v>
       </c>
       <c r="N12" s="13">
-        <v>272248</v>
+        <v>268404</v>
       </c>
       <c r="O12" s="13">
-        <v>172083</v>
+        <v>238977</v>
       </c>
       <c r="P12" s="13">
-        <v>268404</v>
+        <v>231282</v>
       </c>
       <c r="Q12" s="13">
-        <v>238977</v>
+        <v>231711</v>
       </c>
       <c r="R12" s="13">
-        <v>231282</v>
+        <v>216718</v>
       </c>
       <c r="S12" s="13">
-        <v>231711</v>
+        <v>173302</v>
       </c>
       <c r="T12" s="13">
-        <v>216718</v>
+        <v>85515</v>
       </c>
       <c r="U12" s="13">
-        <v>173302</v>
+        <v>274454</v>
       </c>
       <c r="V12" s="13">
-        <v>85515</v>
+        <v>298990</v>
       </c>
       <c r="W12" s="13">
-        <v>274454</v>
+        <v>284459</v>
       </c>
       <c r="X12" s="13">
-        <v>298990</v>
+        <v>265583</v>
       </c>
       <c r="Y12" s="13">
-        <v>284459</v>
+        <v>196851</v>
       </c>
       <c r="Z12" s="13">
-        <v>265583</v>
+        <v>271215</v>
       </c>
       <c r="AA12" s="13">
-        <v>196851</v>
+        <v>288370</v>
       </c>
       <c r="AB12" s="13">
-        <v>271215</v>
+        <v>283237</v>
       </c>
       <c r="AC12" s="13">
-        <v>288370</v>
+        <v>286485</v>
       </c>
       <c r="AD12" s="13">
-        <v>283237</v>
+        <v>279469</v>
       </c>
       <c r="AE12" s="13">
-        <v>286485</v>
+        <v>216906</v>
       </c>
       <c r="AF12" s="13">
-        <v>279469</v>
+        <v>279355</v>
       </c>
       <c r="AG12" s="13">
-        <v>216906</v>
+        <v>267862</v>
       </c>
       <c r="AH12" s="13">
-        <v>279355</v>
+        <v>299911</v>
       </c>
       <c r="AI12" s="13">
-        <v>267862</v>
+        <v>277491</v>
       </c>
       <c r="AJ12" s="13">
-        <v>299911</v>
+        <v>283304</v>
       </c>
       <c r="AK12" s="13">
-        <v>277491</v>
+        <v>258736</v>
       </c>
       <c r="AL12" s="13">
-        <v>283304</v>
+        <v>279802</v>
       </c>
       <c r="AM12" s="13">
-        <v>258736</v>
+        <v>280120</v>
       </c>
       <c r="AN12" s="13">
-        <v>279802</v>
+        <v>282960</v>
       </c>
       <c r="AO12" s="13">
-        <v>280120</v>
+        <v>280272</v>
       </c>
       <c r="AP12" s="13">
-        <v>282960</v>
+        <v>210275</v>
       </c>
       <c r="AQ12" s="13">
-        <v>280272</v>
+        <v>163163</v>
       </c>
       <c r="AR12" s="13">
-        <v>210275</v>
+        <v>188746</v>
       </c>
       <c r="AS12" s="13">
-        <v>163163</v>
+        <v>-1125416</v>
       </c>
       <c r="AT12" s="13">
-        <v>188746</v>
+        <v>295487</v>
       </c>
       <c r="AU12" s="13">
-        <v>272791</v>
+        <v>293527</v>
       </c>
       <c r="AV12" s="13">
-        <v>295487</v>
+        <v>258459</v>
       </c>
       <c r="AW12" s="13">
-        <v>293527</v>
+        <v>270113</v>
       </c>
       <c r="AX12" s="13">
-        <v>258459</v>
+        <v>280799</v>
       </c>
       <c r="AY12" s="13">
-        <v>270113</v>
+        <v>291318</v>
       </c>
       <c r="AZ12" s="13">
-        <v>280799</v>
+        <v>286177</v>
       </c>
       <c r="BA12" s="13">
-        <v>291318</v>
+        <v>230526</v>
       </c>
       <c r="BB12" s="13">
-        <v>286177</v>
+        <v>251480</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1841,11 +1841,11 @@
       <c r="AA14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AB14" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC14" s="17" t="s">
-        <v>60</v>
+      <c r="AB14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>0</v>
       </c>
       <c r="AD14" s="17">
         <v>0</v>
@@ -1930,154 +1930,154 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19">
-        <v>450569</v>
+        <v>375861</v>
       </c>
       <c r="F15" s="19">
-        <v>304399</v>
+        <v>453194</v>
       </c>
       <c r="G15" s="19">
-        <v>375861</v>
+        <v>275485</v>
       </c>
       <c r="H15" s="19">
-        <v>453194</v>
+        <v>358671</v>
       </c>
       <c r="I15" s="19">
-        <v>275485</v>
+        <v>416640</v>
       </c>
       <c r="J15" s="19">
-        <v>358671</v>
+        <v>402047</v>
       </c>
       <c r="K15" s="19">
-        <v>416640</v>
+        <v>468046</v>
       </c>
       <c r="L15" s="19">
-        <v>402047</v>
+        <v>447181</v>
       </c>
       <c r="M15" s="19">
-        <v>468046</v>
+        <v>282862</v>
       </c>
       <c r="N15" s="19">
-        <v>447181</v>
+        <v>440326</v>
       </c>
       <c r="O15" s="19">
-        <v>282862</v>
+        <v>398213</v>
       </c>
       <c r="P15" s="19">
-        <v>440326</v>
+        <v>366406</v>
       </c>
       <c r="Q15" s="19">
-        <v>398213</v>
+        <v>380884</v>
       </c>
       <c r="R15" s="19">
-        <v>366406</v>
+        <v>341986</v>
       </c>
       <c r="S15" s="19">
-        <v>380884</v>
+        <v>275846</v>
       </c>
       <c r="T15" s="19">
-        <v>341986</v>
+        <v>122868</v>
       </c>
       <c r="U15" s="19">
-        <v>275846</v>
+        <v>446004</v>
       </c>
       <c r="V15" s="19">
-        <v>122868</v>
+        <v>490756</v>
       </c>
       <c r="W15" s="19">
-        <v>446004</v>
+        <v>450549</v>
       </c>
       <c r="X15" s="19">
-        <v>490756</v>
+        <v>437071</v>
       </c>
       <c r="Y15" s="19">
-        <v>450549</v>
+        <v>322692</v>
       </c>
       <c r="Z15" s="19">
-        <v>437071</v>
+        <v>438149</v>
       </c>
       <c r="AA15" s="19">
-        <v>322692</v>
+        <v>468902</v>
       </c>
       <c r="AB15" s="19">
-        <v>438149</v>
+        <v>463472</v>
       </c>
       <c r="AC15" s="19">
-        <v>468902</v>
+        <v>463934</v>
       </c>
       <c r="AD15" s="19">
-        <v>463472</v>
+        <v>447773</v>
       </c>
       <c r="AE15" s="19">
-        <v>463934</v>
+        <v>351769</v>
       </c>
       <c r="AF15" s="19">
-        <v>447773</v>
+        <v>459189</v>
       </c>
       <c r="AG15" s="19">
-        <v>351769</v>
+        <v>437720</v>
       </c>
       <c r="AH15" s="19">
-        <v>459189</v>
+        <v>491299</v>
       </c>
       <c r="AI15" s="19">
-        <v>437720</v>
+        <v>456804</v>
       </c>
       <c r="AJ15" s="19">
-        <v>491299</v>
+        <v>466833</v>
       </c>
       <c r="AK15" s="19">
-        <v>456804</v>
+        <v>423511</v>
       </c>
       <c r="AL15" s="19">
-        <v>466833</v>
+        <v>458449</v>
       </c>
       <c r="AM15" s="19">
-        <v>423511</v>
+        <v>460838</v>
       </c>
       <c r="AN15" s="19">
-        <v>458449</v>
+        <v>465436</v>
       </c>
       <c r="AO15" s="19">
-        <v>460838</v>
+        <v>464287</v>
       </c>
       <c r="AP15" s="19">
-        <v>465436</v>
+        <v>345032</v>
       </c>
       <c r="AQ15" s="19">
-        <v>464287</v>
+        <v>279854</v>
       </c>
       <c r="AR15" s="19">
-        <v>345032</v>
+        <v>315472</v>
       </c>
       <c r="AS15" s="19">
-        <v>279854</v>
+        <v>-947083</v>
       </c>
       <c r="AT15" s="19">
-        <v>315472</v>
+        <v>483101</v>
       </c>
       <c r="AU15" s="19">
-        <v>451124</v>
+        <v>474233</v>
       </c>
       <c r="AV15" s="19">
-        <v>483101</v>
+        <v>437975</v>
       </c>
       <c r="AW15" s="19">
-        <v>474233</v>
+        <v>446590</v>
       </c>
       <c r="AX15" s="19">
-        <v>437975</v>
+        <v>458856</v>
       </c>
       <c r="AY15" s="19">
-        <v>446590</v>
+        <v>478603</v>
       </c>
       <c r="AZ15" s="19">
-        <v>458856</v>
+        <v>466562</v>
       </c>
       <c r="BA15" s="19">
-        <v>478603</v>
+        <v>376524</v>
       </c>
       <c r="BB15" s="19">
-        <v>466562</v>
+        <v>411033</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2523,25 +2523,25 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
-        <v>15100</v>
+        <v>15046</v>
       </c>
       <c r="F22" s="11">
-        <v>27624</v>
+        <v>0</v>
       </c>
       <c r="G22" s="11">
-        <v>15046</v>
+        <v>0</v>
       </c>
       <c r="H22" s="11">
-        <v>0</v>
+        <v>9350</v>
       </c>
       <c r="I22" s="11">
         <v>0</v>
       </c>
       <c r="J22" s="11">
-        <v>9350</v>
+        <v>18500</v>
       </c>
       <c r="K22" s="11">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="L22" s="11">
         <v>18500</v>
@@ -2550,124 +2550,124 @@
         <v>18500</v>
       </c>
       <c r="N22" s="11">
+        <v>0</v>
+      </c>
+      <c r="O22" s="11">
+        <v>37003</v>
+      </c>
+      <c r="P22" s="11">
+        <v>18501</v>
+      </c>
+      <c r="Q22" s="11">
         <v>18500</v>
       </c>
-      <c r="O22" s="11">
+      <c r="R22" s="11">
+        <v>0</v>
+      </c>
+      <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
+        <v>13500</v>
+      </c>
+      <c r="U22" s="11">
+        <v>6001</v>
+      </c>
+      <c r="V22" s="11">
+        <v>18501</v>
+      </c>
+      <c r="W22" s="11">
         <v>18500</v>
       </c>
-      <c r="P22" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>37003</v>
-      </c>
-      <c r="R22" s="11">
+      <c r="X22" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="11">
         <v>18501</v>
       </c>
-      <c r="S22" s="11">
+      <c r="Z22" s="11">
         <v>18500</v>
       </c>
-      <c r="T22" s="11">
-        <v>0</v>
-      </c>
-      <c r="U22" s="11">
-        <v>0</v>
-      </c>
-      <c r="V22" s="11">
-        <v>13500</v>
-      </c>
-      <c r="W22" s="11">
-        <v>6001</v>
-      </c>
-      <c r="X22" s="11">
+      <c r="AA22" s="11">
+        <v>18500</v>
+      </c>
+      <c r="AB22" s="11">
         <v>18501</v>
       </c>
-      <c r="Y22" s="11">
+      <c r="AC22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="11">
+        <v>18600</v>
+      </c>
+      <c r="AE22" s="11">
         <v>18500</v>
       </c>
-      <c r="Z22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="11">
+      <c r="AF22" s="11">
         <v>18501</v>
-      </c>
-      <c r="AB22" s="11">
-        <v>18500</v>
-      </c>
-      <c r="AC22" s="11">
-        <v>18500</v>
-      </c>
-      <c r="AD22" s="11">
-        <v>18501</v>
-      </c>
-      <c r="AE22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="11">
-        <v>18600</v>
       </c>
       <c r="AG22" s="11">
         <v>18500</v>
       </c>
       <c r="AH22" s="11">
-        <v>18501</v>
+        <v>18500</v>
       </c>
       <c r="AI22" s="11">
         <v>18500</v>
       </c>
       <c r="AJ22" s="11">
+        <v>37000</v>
+      </c>
+      <c r="AK22" s="11">
+        <v>18501</v>
+      </c>
+      <c r="AL22" s="11">
         <v>18500</v>
       </c>
-      <c r="AK22" s="11">
-        <v>18500</v>
-      </c>
-      <c r="AL22" s="11">
-        <v>37000</v>
-      </c>
       <c r="AM22" s="11">
-        <v>18501</v>
+        <v>23001</v>
       </c>
       <c r="AN22" s="11">
-        <v>18500</v>
+        <v>23001</v>
       </c>
       <c r="AO22" s="11">
         <v>23001</v>
       </c>
       <c r="AP22" s="11">
-        <v>23001</v>
+        <v>23000</v>
       </c>
       <c r="AQ22" s="11">
-        <v>23001</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="11">
+        <v>18501</v>
+      </c>
+      <c r="AS22" s="11">
+        <v>26415</v>
+      </c>
+      <c r="AT22" s="11">
+        <v>4703</v>
+      </c>
+      <c r="AU22" s="11">
+        <v>23212</v>
+      </c>
+      <c r="AV22" s="11">
+        <v>41501</v>
+      </c>
+      <c r="AW22" s="11">
         <v>23000</v>
       </c>
-      <c r="AS22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="11">
-        <v>18501</v>
-      </c>
-      <c r="AU22" s="11">
-        <v>26415</v>
-      </c>
-      <c r="AV22" s="11">
-        <v>4703</v>
-      </c>
-      <c r="AW22" s="11">
-        <v>23212</v>
-      </c>
       <c r="AX22" s="11">
-        <v>41501</v>
+        <v>23000</v>
       </c>
       <c r="AY22" s="11">
         <v>23000</v>
       </c>
       <c r="AZ22" s="11">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="11">
-        <v>23000</v>
+        <v>48720</v>
       </c>
       <c r="BB22" s="11">
         <v>0</v>
@@ -2682,154 +2682,154 @@
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>420093</v>
+        <v>139793</v>
       </c>
       <c r="F23" s="13">
-        <v>225056</v>
+        <v>166787</v>
       </c>
       <c r="G23" s="13">
-        <v>139793</v>
+        <v>258805</v>
       </c>
       <c r="H23" s="13">
-        <v>166787</v>
+        <v>275398</v>
       </c>
       <c r="I23" s="13">
-        <v>258805</v>
+        <v>231584</v>
       </c>
       <c r="J23" s="13">
-        <v>275398</v>
+        <v>233730</v>
       </c>
       <c r="K23" s="13">
-        <v>231584</v>
+        <v>249774</v>
       </c>
       <c r="L23" s="13">
-        <v>233730</v>
+        <v>169661</v>
       </c>
       <c r="M23" s="13">
-        <v>249774</v>
+        <v>325448</v>
       </c>
       <c r="N23" s="13">
-        <v>169661</v>
+        <v>274658</v>
       </c>
       <c r="O23" s="13">
-        <v>325448</v>
+        <v>56330</v>
       </c>
       <c r="P23" s="13">
-        <v>274658</v>
+        <v>255085</v>
       </c>
       <c r="Q23" s="13">
-        <v>56330</v>
+        <v>190956</v>
       </c>
       <c r="R23" s="13">
-        <v>255085</v>
+        <v>131768</v>
       </c>
       <c r="S23" s="13">
-        <v>190956</v>
+        <v>335575</v>
       </c>
       <c r="T23" s="13">
-        <v>131768</v>
+        <v>275141</v>
       </c>
       <c r="U23" s="13">
-        <v>335575</v>
+        <v>295317</v>
       </c>
       <c r="V23" s="13">
-        <v>275141</v>
+        <v>152899</v>
       </c>
       <c r="W23" s="13">
-        <v>295317</v>
+        <v>357990</v>
       </c>
       <c r="X23" s="13">
-        <v>152899</v>
+        <v>175013</v>
       </c>
       <c r="Y23" s="13">
-        <v>357990</v>
+        <v>253107</v>
       </c>
       <c r="Z23" s="13">
-        <v>175013</v>
+        <v>230417</v>
       </c>
       <c r="AA23" s="13">
-        <v>253107</v>
+        <v>304559</v>
       </c>
       <c r="AB23" s="13">
-        <v>230417</v>
+        <v>375987</v>
       </c>
       <c r="AC23" s="13">
-        <v>304559</v>
+        <v>269242</v>
       </c>
       <c r="AD23" s="13">
-        <v>375987</v>
+        <v>321178</v>
       </c>
       <c r="AE23" s="13">
-        <v>269242</v>
+        <v>240447</v>
       </c>
       <c r="AF23" s="13">
-        <v>321178</v>
+        <v>205700</v>
       </c>
       <c r="AG23" s="13">
-        <v>240447</v>
+        <v>327253</v>
       </c>
       <c r="AH23" s="13">
-        <v>205700</v>
+        <v>293266</v>
       </c>
       <c r="AI23" s="13">
-        <v>327253</v>
+        <v>254605</v>
       </c>
       <c r="AJ23" s="13">
-        <v>293266</v>
+        <v>250264</v>
       </c>
       <c r="AK23" s="13">
-        <v>254605</v>
+        <v>157678</v>
       </c>
       <c r="AL23" s="13">
-        <v>250264</v>
+        <v>371245</v>
       </c>
       <c r="AM23" s="13">
-        <v>157678</v>
+        <v>344576</v>
       </c>
       <c r="AN23" s="13">
-        <v>371245</v>
+        <v>240346</v>
       </c>
       <c r="AO23" s="13">
-        <v>344576</v>
+        <v>282274</v>
       </c>
       <c r="AP23" s="13">
-        <v>240346</v>
+        <v>337777</v>
       </c>
       <c r="AQ23" s="13">
-        <v>282274</v>
+        <v>142910</v>
       </c>
       <c r="AR23" s="13">
-        <v>337777</v>
+        <v>181564</v>
       </c>
       <c r="AS23" s="13">
-        <v>142910</v>
+        <v>216768</v>
       </c>
       <c r="AT23" s="13">
-        <v>181564</v>
+        <v>327610</v>
       </c>
       <c r="AU23" s="13">
-        <v>216768</v>
+        <v>200174</v>
       </c>
       <c r="AV23" s="13">
-        <v>327610</v>
+        <v>262559</v>
       </c>
       <c r="AW23" s="13">
-        <v>200174</v>
+        <v>171022</v>
       </c>
       <c r="AX23" s="13">
-        <v>262559</v>
+        <v>302828</v>
       </c>
       <c r="AY23" s="13">
-        <v>171022</v>
+        <v>502090</v>
       </c>
       <c r="AZ23" s="13">
-        <v>302828</v>
+        <v>181773</v>
       </c>
       <c r="BA23" s="13">
-        <v>502090</v>
+        <v>313083</v>
       </c>
       <c r="BB23" s="13">
-        <v>181773</v>
+        <v>278389</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -2964,11 +2964,11 @@
       <c r="AA25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AB25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC25" s="17" t="s">
-        <v>60</v>
+      <c r="AB25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="17">
+        <v>0</v>
       </c>
       <c r="AD25" s="17">
         <v>0</v>
@@ -3178,11 +3178,11 @@
       <c r="AA27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AB27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC27" s="17" t="s">
-        <v>60</v>
+      <c r="AB27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="17">
+        <v>0</v>
       </c>
       <c r="AD27" s="17">
         <v>0</v>
@@ -3267,154 +3267,154 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19">
-        <v>435193</v>
+        <v>154839</v>
       </c>
       <c r="F28" s="19">
-        <v>252680</v>
+        <v>166787</v>
       </c>
       <c r="G28" s="19">
-        <v>154839</v>
+        <v>258805</v>
       </c>
       <c r="H28" s="19">
-        <v>166787</v>
+        <v>284748</v>
       </c>
       <c r="I28" s="19">
-        <v>258805</v>
+        <v>231584</v>
       </c>
       <c r="J28" s="19">
-        <v>284748</v>
+        <v>252230</v>
       </c>
       <c r="K28" s="19">
-        <v>231584</v>
+        <v>268274</v>
       </c>
       <c r="L28" s="19">
-        <v>252230</v>
+        <v>188161</v>
       </c>
       <c r="M28" s="19">
-        <v>268274</v>
+        <v>343948</v>
       </c>
       <c r="N28" s="19">
-        <v>188161</v>
+        <v>274658</v>
       </c>
       <c r="O28" s="19">
-        <v>343948</v>
+        <v>93333</v>
       </c>
       <c r="P28" s="19">
-        <v>274658</v>
+        <v>273586</v>
       </c>
       <c r="Q28" s="19">
-        <v>93333</v>
+        <v>209456</v>
       </c>
       <c r="R28" s="19">
-        <v>273586</v>
+        <v>131768</v>
       </c>
       <c r="S28" s="19">
-        <v>209456</v>
+        <v>335575</v>
       </c>
       <c r="T28" s="19">
-        <v>131768</v>
+        <v>288641</v>
       </c>
       <c r="U28" s="19">
-        <v>335575</v>
+        <v>301318</v>
       </c>
       <c r="V28" s="19">
-        <v>288641</v>
+        <v>171400</v>
       </c>
       <c r="W28" s="19">
-        <v>301318</v>
+        <v>376490</v>
       </c>
       <c r="X28" s="19">
-        <v>171400</v>
+        <v>175013</v>
       </c>
       <c r="Y28" s="19">
-        <v>376490</v>
+        <v>271608</v>
       </c>
       <c r="Z28" s="19">
-        <v>175013</v>
+        <v>248917</v>
       </c>
       <c r="AA28" s="19">
-        <v>271608</v>
+        <v>323059</v>
       </c>
       <c r="AB28" s="19">
-        <v>248917</v>
+        <v>394488</v>
       </c>
       <c r="AC28" s="19">
-        <v>323059</v>
+        <v>269242</v>
       </c>
       <c r="AD28" s="19">
-        <v>394488</v>
+        <v>339778</v>
       </c>
       <c r="AE28" s="19">
-        <v>269242</v>
+        <v>258947</v>
       </c>
       <c r="AF28" s="19">
-        <v>339778</v>
+        <v>224201</v>
       </c>
       <c r="AG28" s="19">
-        <v>258947</v>
+        <v>345753</v>
       </c>
       <c r="AH28" s="19">
-        <v>224201</v>
+        <v>311766</v>
       </c>
       <c r="AI28" s="19">
-        <v>345753</v>
+        <v>273105</v>
       </c>
       <c r="AJ28" s="19">
-        <v>311766</v>
+        <v>287264</v>
       </c>
       <c r="AK28" s="19">
-        <v>273105</v>
+        <v>176179</v>
       </c>
       <c r="AL28" s="19">
-        <v>287264</v>
+        <v>389745</v>
       </c>
       <c r="AM28" s="19">
-        <v>176179</v>
+        <v>367577</v>
       </c>
       <c r="AN28" s="19">
-        <v>389745</v>
+        <v>263347</v>
       </c>
       <c r="AO28" s="19">
-        <v>367577</v>
+        <v>305275</v>
       </c>
       <c r="AP28" s="19">
-        <v>263347</v>
+        <v>360777</v>
       </c>
       <c r="AQ28" s="19">
-        <v>305275</v>
+        <v>142910</v>
       </c>
       <c r="AR28" s="19">
-        <v>360777</v>
+        <v>200065</v>
       </c>
       <c r="AS28" s="19">
-        <v>142910</v>
+        <v>243183</v>
       </c>
       <c r="AT28" s="19">
-        <v>200065</v>
+        <v>332313</v>
       </c>
       <c r="AU28" s="19">
-        <v>243183</v>
+        <v>223386</v>
       </c>
       <c r="AV28" s="19">
-        <v>332313</v>
+        <v>304060</v>
       </c>
       <c r="AW28" s="19">
-        <v>223386</v>
+        <v>194022</v>
       </c>
       <c r="AX28" s="19">
-        <v>304060</v>
+        <v>325828</v>
       </c>
       <c r="AY28" s="19">
-        <v>194022</v>
+        <v>525090</v>
       </c>
       <c r="AZ28" s="19">
-        <v>325828</v>
+        <v>181773</v>
       </c>
       <c r="BA28" s="19">
-        <v>525090</v>
+        <v>361803</v>
       </c>
       <c r="BB28" s="19">
-        <v>181773</v>
+        <v>278389</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3860,151 +3860,151 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>358566</v>
+        <v>386512</v>
       </c>
       <c r="F35" s="11">
-        <v>697203</v>
+        <v>0</v>
       </c>
       <c r="G35" s="11">
-        <v>386512</v>
+        <v>0</v>
       </c>
       <c r="H35" s="11">
-        <v>0</v>
+        <v>133650</v>
       </c>
       <c r="I35" s="11">
         <v>0</v>
       </c>
       <c r="J35" s="11">
-        <v>133650</v>
+        <v>269983</v>
       </c>
       <c r="K35" s="11">
-        <v>0</v>
+        <v>279310</v>
       </c>
       <c r="L35" s="11">
-        <v>269983</v>
+        <v>293710</v>
       </c>
       <c r="M35" s="11">
-        <v>279310</v>
+        <v>308443</v>
       </c>
       <c r="N35" s="11">
-        <v>293710</v>
+        <v>0</v>
       </c>
       <c r="O35" s="11">
-        <v>308443</v>
+        <v>587752</v>
       </c>
       <c r="P35" s="11">
-        <v>0</v>
+        <v>297947</v>
       </c>
       <c r="Q35" s="11">
-        <v>587752</v>
+        <v>297128</v>
       </c>
       <c r="R35" s="11">
-        <v>297947</v>
+        <v>0</v>
       </c>
       <c r="S35" s="11">
-        <v>297128</v>
+        <v>0</v>
       </c>
       <c r="T35" s="11">
-        <v>0</v>
+        <v>237246</v>
       </c>
       <c r="U35" s="11">
-        <v>0</v>
+        <v>116511</v>
       </c>
       <c r="V35" s="11">
-        <v>237246</v>
+        <v>372508</v>
       </c>
       <c r="W35" s="11">
-        <v>116511</v>
+        <v>279868</v>
       </c>
       <c r="X35" s="11">
-        <v>372508</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="11">
-        <v>279868</v>
+        <v>338097</v>
       </c>
       <c r="Z35" s="11">
-        <v>0</v>
+        <v>370068</v>
       </c>
       <c r="AA35" s="11">
-        <v>338097</v>
+        <v>414778</v>
       </c>
       <c r="AB35" s="11">
-        <v>370068</v>
+        <v>480194</v>
       </c>
       <c r="AC35" s="11">
-        <v>414778</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="11">
-        <v>480194</v>
+        <v>520445</v>
       </c>
       <c r="AE35" s="11">
-        <v>0</v>
+        <v>519871</v>
       </c>
       <c r="AF35" s="11">
-        <v>520445</v>
+        <v>470099</v>
       </c>
       <c r="AG35" s="11">
-        <v>519871</v>
+        <v>499180</v>
       </c>
       <c r="AH35" s="11">
-        <v>470099</v>
+        <v>542905</v>
       </c>
       <c r="AI35" s="11">
-        <v>499180</v>
+        <v>667817</v>
       </c>
       <c r="AJ35" s="11">
-        <v>542905</v>
+        <v>1403401</v>
       </c>
       <c r="AK35" s="11">
-        <v>667817</v>
+        <v>863514</v>
       </c>
       <c r="AL35" s="11">
-        <v>1403401</v>
+        <v>1299998</v>
       </c>
       <c r="AM35" s="11">
-        <v>863514</v>
+        <v>2091308</v>
       </c>
       <c r="AN35" s="11">
-        <v>1299998</v>
+        <v>2155701</v>
       </c>
       <c r="AO35" s="11">
-        <v>2091308</v>
+        <v>2142954</v>
       </c>
       <c r="AP35" s="11">
-        <v>2155701</v>
+        <v>2867672</v>
       </c>
       <c r="AQ35" s="11">
-        <v>2142954</v>
+        <v>0</v>
       </c>
       <c r="AR35" s="11">
-        <v>2867672</v>
+        <v>2299761</v>
       </c>
       <c r="AS35" s="11">
-        <v>0</v>
+        <v>3565180</v>
       </c>
       <c r="AT35" s="11">
-        <v>2299761</v>
+        <v>850906</v>
       </c>
       <c r="AU35" s="11">
-        <v>3565180</v>
+        <v>4851537</v>
       </c>
       <c r="AV35" s="11">
-        <v>850906</v>
+        <v>8485322</v>
       </c>
       <c r="AW35" s="11">
-        <v>4851537</v>
+        <v>4572232</v>
       </c>
       <c r="AX35" s="11">
-        <v>8485322</v>
+        <v>4435078</v>
       </c>
       <c r="AY35" s="11">
-        <v>4572232</v>
+        <v>4299510</v>
       </c>
       <c r="AZ35" s="11">
-        <v>4435078</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="11">
-        <v>4299510</v>
+        <v>9197732</v>
       </c>
       <c r="BB35" s="11">
         <v>0</v>
@@ -4019,154 +4019,154 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>7321385</v>
+        <v>2617704</v>
       </c>
       <c r="F36" s="13">
-        <v>4003825</v>
+        <v>1975441</v>
       </c>
       <c r="G36" s="13">
-        <v>2617704</v>
+        <v>3167551</v>
       </c>
       <c r="H36" s="13">
-        <v>1975441</v>
+        <v>3141431</v>
       </c>
       <c r="I36" s="13">
-        <v>3167551</v>
+        <v>3634354</v>
       </c>
       <c r="J36" s="13">
-        <v>3141431</v>
+        <v>4109647</v>
       </c>
       <c r="K36" s="13">
-        <v>3634354</v>
+        <v>4747876</v>
       </c>
       <c r="L36" s="13">
-        <v>4109647</v>
+        <v>3225814</v>
       </c>
       <c r="M36" s="13">
-        <v>4747876</v>
+        <v>8016855</v>
       </c>
       <c r="N36" s="13">
-        <v>3225814</v>
+        <v>6442505</v>
       </c>
       <c r="O36" s="13">
-        <v>8016855</v>
+        <v>1093020</v>
       </c>
       <c r="P36" s="13">
-        <v>6442505</v>
+        <v>5844152</v>
       </c>
       <c r="Q36" s="13">
-        <v>1093020</v>
+        <v>3916867</v>
       </c>
       <c r="R36" s="13">
-        <v>5844152</v>
+        <v>2587309</v>
       </c>
       <c r="S36" s="13">
-        <v>3916867</v>
+        <v>6906953</v>
       </c>
       <c r="T36" s="13">
-        <v>2587309</v>
+        <v>5888942</v>
       </c>
       <c r="U36" s="13">
-        <v>6906953</v>
+        <v>6258081</v>
       </c>
       <c r="V36" s="13">
-        <v>5888942</v>
+        <v>3531193</v>
       </c>
       <c r="W36" s="13">
-        <v>6258081</v>
+        <v>8829418</v>
       </c>
       <c r="X36" s="13">
-        <v>3531193</v>
+        <v>4881451</v>
       </c>
       <c r="Y36" s="13">
-        <v>8829418</v>
+        <v>7637038</v>
       </c>
       <c r="Z36" s="13">
-        <v>4881451</v>
+        <v>8463100</v>
       </c>
       <c r="AA36" s="13">
-        <v>7637038</v>
+        <v>11648782</v>
       </c>
       <c r="AB36" s="13">
-        <v>8463100</v>
+        <v>16366156</v>
       </c>
       <c r="AC36" s="13">
-        <v>11648782</v>
+        <v>12784810</v>
       </c>
       <c r="AD36" s="13">
-        <v>16366156</v>
+        <v>16385590</v>
       </c>
       <c r="AE36" s="13">
-        <v>12784810</v>
+        <v>11402494</v>
       </c>
       <c r="AF36" s="13">
-        <v>16385590</v>
+        <v>8330752</v>
       </c>
       <c r="AG36" s="13">
-        <v>11402494</v>
+        <v>18274212</v>
       </c>
       <c r="AH36" s="13">
-        <v>8330752</v>
+        <v>17307505</v>
       </c>
       <c r="AI36" s="13">
-        <v>18274212</v>
+        <v>14017381</v>
       </c>
       <c r="AJ36" s="13">
-        <v>17307505</v>
+        <v>13995183</v>
       </c>
       <c r="AK36" s="13">
-        <v>14017381</v>
+        <v>9532350</v>
       </c>
       <c r="AL36" s="13">
-        <v>13995183</v>
+        <v>23798650</v>
       </c>
       <c r="AM36" s="13">
-        <v>9532350</v>
+        <v>23546153</v>
       </c>
       <c r="AN36" s="13">
-        <v>23798650</v>
+        <v>21313834</v>
       </c>
       <c r="AO36" s="13">
-        <v>23546153</v>
+        <v>25134001</v>
       </c>
       <c r="AP36" s="13">
-        <v>21313834</v>
+        <v>40773220</v>
       </c>
       <c r="AQ36" s="13">
-        <v>25134001</v>
+        <v>18279037</v>
       </c>
       <c r="AR36" s="13">
-        <v>40773220</v>
+        <v>18477867</v>
       </c>
       <c r="AS36" s="13">
-        <v>18279037</v>
+        <v>23965169</v>
       </c>
       <c r="AT36" s="13">
-        <v>18419348</v>
+        <v>48009944</v>
       </c>
       <c r="AU36" s="13">
-        <v>23965169</v>
+        <v>30178840</v>
       </c>
       <c r="AV36" s="13">
-        <v>48009944</v>
+        <v>35683428</v>
       </c>
       <c r="AW36" s="13">
-        <v>34269787</v>
+        <v>20686668</v>
       </c>
       <c r="AX36" s="13">
-        <v>35683428</v>
+        <v>37695819</v>
       </c>
       <c r="AY36" s="13">
-        <v>20686668</v>
+        <v>70459695</v>
       </c>
       <c r="AZ36" s="13">
-        <v>40098525</v>
+        <v>27822537</v>
       </c>
       <c r="BA36" s="13">
-        <v>70459695</v>
+        <v>40578651</v>
       </c>
       <c r="BB36" s="13">
-        <v>27822537</v>
+        <v>33243892</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4303,11 +4303,11 @@
       <c r="AA38" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AB38" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC38" s="17" t="s">
-        <v>60</v>
+      <c r="AB38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="17">
+        <v>0</v>
       </c>
       <c r="AD38" s="17">
         <v>0</v>
@@ -4519,11 +4519,11 @@
       <c r="AA40" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AB40" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC40" s="17" t="s">
-        <v>60</v>
+      <c r="AB40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="17">
+        <v>0</v>
       </c>
       <c r="AD40" s="17">
         <v>0</v>
@@ -4735,11 +4735,11 @@
       <c r="AA42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AB42" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC42" s="11" t="s">
-        <v>60</v>
+      <c r="AB42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="11">
+        <v>0</v>
       </c>
       <c r="AD42" s="11">
         <v>0</v>
@@ -4824,154 +4824,154 @@
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19">
-        <v>7679951</v>
+        <v>3004216</v>
       </c>
       <c r="F43" s="19">
-        <v>4701028</v>
+        <v>1975441</v>
       </c>
       <c r="G43" s="19">
-        <v>3004216</v>
+        <v>3167551</v>
       </c>
       <c r="H43" s="19">
-        <v>1975441</v>
+        <v>3275081</v>
       </c>
       <c r="I43" s="19">
-        <v>3167551</v>
+        <v>3634354</v>
       </c>
       <c r="J43" s="19">
-        <v>3275081</v>
+        <v>4379630</v>
       </c>
       <c r="K43" s="19">
-        <v>3634354</v>
+        <v>5027186</v>
       </c>
       <c r="L43" s="19">
-        <v>4379630</v>
+        <v>3519524</v>
       </c>
       <c r="M43" s="19">
-        <v>5027186</v>
+        <v>8325298</v>
       </c>
       <c r="N43" s="19">
-        <v>3519524</v>
+        <v>6442505</v>
       </c>
       <c r="O43" s="19">
-        <v>8325298</v>
+        <v>1680772</v>
       </c>
       <c r="P43" s="19">
-        <v>6442505</v>
+        <v>6142099</v>
       </c>
       <c r="Q43" s="19">
-        <v>1680772</v>
+        <v>4213995</v>
       </c>
       <c r="R43" s="19">
-        <v>6142099</v>
+        <v>2587309</v>
       </c>
       <c r="S43" s="19">
-        <v>4213995</v>
+        <v>6906953</v>
       </c>
       <c r="T43" s="19">
-        <v>2587309</v>
+        <v>6126188</v>
       </c>
       <c r="U43" s="19">
-        <v>6906953</v>
+        <v>6374592</v>
       </c>
       <c r="V43" s="19">
-        <v>6126188</v>
+        <v>3903701</v>
       </c>
       <c r="W43" s="19">
-        <v>6374592</v>
+        <v>9109286</v>
       </c>
       <c r="X43" s="19">
-        <v>3903701</v>
+        <v>4881451</v>
       </c>
       <c r="Y43" s="19">
-        <v>9109286</v>
+        <v>7975135</v>
       </c>
       <c r="Z43" s="19">
-        <v>4881451</v>
+        <v>8833168</v>
       </c>
       <c r="AA43" s="19">
-        <v>7975135</v>
+        <v>12063560</v>
       </c>
       <c r="AB43" s="19">
-        <v>8833168</v>
+        <v>16846350</v>
       </c>
       <c r="AC43" s="19">
-        <v>12063560</v>
+        <v>12784810</v>
       </c>
       <c r="AD43" s="19">
-        <v>16846350</v>
+        <v>16906035</v>
       </c>
       <c r="AE43" s="19">
-        <v>12784810</v>
+        <v>11922365</v>
       </c>
       <c r="AF43" s="19">
-        <v>16906035</v>
+        <v>8800851</v>
       </c>
       <c r="AG43" s="19">
-        <v>11922365</v>
+        <v>18773392</v>
       </c>
       <c r="AH43" s="19">
-        <v>8800851</v>
+        <v>17850410</v>
       </c>
       <c r="AI43" s="19">
-        <v>18773392</v>
+        <v>14685198</v>
       </c>
       <c r="AJ43" s="19">
-        <v>17850410</v>
+        <v>15398584</v>
       </c>
       <c r="AK43" s="19">
-        <v>14685198</v>
+        <v>10395864</v>
       </c>
       <c r="AL43" s="19">
-        <v>15398584</v>
+        <v>25098648</v>
       </c>
       <c r="AM43" s="19">
-        <v>10395864</v>
+        <v>25637461</v>
       </c>
       <c r="AN43" s="19">
-        <v>25098648</v>
+        <v>23469535</v>
       </c>
       <c r="AO43" s="19">
-        <v>25637461</v>
+        <v>27276955</v>
       </c>
       <c r="AP43" s="19">
-        <v>23469535</v>
+        <v>43640892</v>
       </c>
       <c r="AQ43" s="19">
-        <v>27276955</v>
+        <v>18279037</v>
       </c>
       <c r="AR43" s="19">
-        <v>43640892</v>
+        <v>20777628</v>
       </c>
       <c r="AS43" s="19">
-        <v>18279037</v>
+        <v>27530349</v>
       </c>
       <c r="AT43" s="19">
-        <v>20719109</v>
+        <v>48860850</v>
       </c>
       <c r="AU43" s="19">
-        <v>27530349</v>
+        <v>35030377</v>
       </c>
       <c r="AV43" s="19">
-        <v>48860850</v>
+        <v>44168750</v>
       </c>
       <c r="AW43" s="19">
-        <v>39121324</v>
+        <v>25258900</v>
       </c>
       <c r="AX43" s="19">
-        <v>44168750</v>
+        <v>42130897</v>
       </c>
       <c r="AY43" s="19">
-        <v>25258900</v>
+        <v>74759205</v>
       </c>
       <c r="AZ43" s="19">
-        <v>44533603</v>
+        <v>27822537</v>
       </c>
       <c r="BA43" s="19">
-        <v>74759205</v>
+        <v>49776383</v>
       </c>
       <c r="BB43" s="19">
-        <v>27822537</v>
+        <v>33243892</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5417,151 +5417,151 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>23746093</v>
+        <v>25688688</v>
       </c>
       <c r="F50" s="11">
-        <v>25239031</v>
+        <v>0</v>
       </c>
       <c r="G50" s="11">
-        <v>25688688</v>
+        <v>0</v>
       </c>
       <c r="H50" s="11">
-        <v>0</v>
+        <v>14294118</v>
       </c>
       <c r="I50" s="11">
         <v>0</v>
       </c>
       <c r="J50" s="11">
-        <v>14294118</v>
+        <v>14593676</v>
       </c>
       <c r="K50" s="11">
-        <v>0</v>
+        <v>15097838</v>
       </c>
       <c r="L50" s="11">
-        <v>14593676</v>
+        <v>15876216</v>
       </c>
       <c r="M50" s="11">
-        <v>15097838</v>
+        <v>16672595</v>
       </c>
       <c r="N50" s="11">
-        <v>15876216</v>
+        <v>0</v>
       </c>
       <c r="O50" s="11">
-        <v>16672595</v>
+        <v>15883901</v>
       </c>
       <c r="P50" s="11">
-        <v>0</v>
+        <v>16104373</v>
       </c>
       <c r="Q50" s="11">
-        <v>15883901</v>
+        <v>16060973</v>
       </c>
       <c r="R50" s="11">
-        <v>16104373</v>
+        <v>0</v>
       </c>
       <c r="S50" s="11">
-        <v>16060973</v>
+        <v>0</v>
       </c>
       <c r="T50" s="11">
-        <v>0</v>
+        <v>17573778</v>
       </c>
       <c r="U50" s="11">
-        <v>0</v>
+        <v>19415264</v>
       </c>
       <c r="V50" s="11">
-        <v>17573778</v>
+        <v>20134479</v>
       </c>
       <c r="W50" s="11">
-        <v>19415264</v>
+        <v>15128000</v>
       </c>
       <c r="X50" s="11">
-        <v>20134479</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="11">
-        <v>15128000</v>
+        <v>18274526</v>
       </c>
       <c r="Z50" s="11">
-        <v>0</v>
+        <v>20003676</v>
       </c>
       <c r="AA50" s="11">
-        <v>18274526</v>
+        <v>22420432</v>
       </c>
       <c r="AB50" s="11">
-        <v>20003676</v>
-      </c>
-      <c r="AC50" s="11">
-        <v>22420432</v>
+        <v>25955029</v>
+      </c>
+      <c r="AC50" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AD50" s="11">
-        <v>25955029</v>
-      </c>
-      <c r="AE50" s="11" t="s">
-        <v>60</v>
+        <v>27980914</v>
+      </c>
+      <c r="AE50" s="11">
+        <v>28101135</v>
       </c>
       <c r="AF50" s="11">
-        <v>27980914</v>
+        <v>25409383</v>
       </c>
       <c r="AG50" s="11">
-        <v>28101135</v>
+        <v>26982703</v>
       </c>
       <c r="AH50" s="11">
-        <v>25409383</v>
+        <v>29346216</v>
       </c>
       <c r="AI50" s="11">
-        <v>26982703</v>
+        <v>36098216</v>
       </c>
       <c r="AJ50" s="11">
-        <v>29346216</v>
+        <v>37929757</v>
       </c>
       <c r="AK50" s="11">
-        <v>36098216</v>
+        <v>46673910</v>
       </c>
       <c r="AL50" s="11">
-        <v>37929757</v>
+        <v>70270162</v>
       </c>
       <c r="AM50" s="11">
-        <v>46673910</v>
+        <v>90922482</v>
       </c>
       <c r="AN50" s="11">
-        <v>70270162</v>
+        <v>93722056</v>
       </c>
       <c r="AO50" s="11">
-        <v>90922482</v>
+        <v>93167862</v>
       </c>
       <c r="AP50" s="11">
-        <v>93722056</v>
-      </c>
-      <c r="AQ50" s="11">
-        <v>93167862</v>
+        <v>124681391</v>
+      </c>
+      <c r="AQ50" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AR50" s="11">
-        <v>124681391</v>
-      </c>
-      <c r="AS50" s="11" t="s">
-        <v>60</v>
+        <v>124304686</v>
+      </c>
+      <c r="AS50" s="11">
+        <v>134968011</v>
       </c>
       <c r="AT50" s="11">
-        <v>124304686</v>
+        <v>180928344</v>
       </c>
       <c r="AU50" s="11">
-        <v>134968011</v>
+        <v>209009866</v>
       </c>
       <c r="AV50" s="11">
-        <v>180928344</v>
+        <v>204460664</v>
       </c>
       <c r="AW50" s="11">
-        <v>209009866</v>
+        <v>198792696</v>
       </c>
       <c r="AX50" s="11">
-        <v>204460664</v>
+        <v>192829478</v>
       </c>
       <c r="AY50" s="11">
-        <v>198792696</v>
-      </c>
-      <c r="AZ50" s="11">
-        <v>192829478</v>
+        <v>186935217</v>
+      </c>
+      <c r="AZ50" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="BA50" s="11">
-        <v>186935217</v>
+        <v>188787603</v>
       </c>
       <c r="BB50" s="11" t="s">
         <v>60</v>
@@ -5576,154 +5576,154 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>25501663</v>
+        <v>27229908</v>
       </c>
       <c r="F51" s="13">
-        <v>24873379</v>
+        <v>27286556</v>
       </c>
       <c r="G51" s="13">
-        <v>27229908</v>
+        <v>23281500</v>
       </c>
       <c r="H51" s="13">
-        <v>27286556</v>
+        <v>23552779</v>
       </c>
       <c r="I51" s="13">
-        <v>23281500</v>
+        <v>34248148</v>
       </c>
       <c r="J51" s="13">
-        <v>23552779</v>
+        <v>34301225</v>
       </c>
       <c r="K51" s="13">
-        <v>34248148</v>
+        <v>36538834</v>
       </c>
       <c r="L51" s="13">
-        <v>34301225</v>
+        <v>39925392</v>
       </c>
       <c r="M51" s="13">
-        <v>36538834</v>
+        <v>42189692</v>
       </c>
       <c r="N51" s="13">
-        <v>39925392</v>
+        <v>41106186</v>
       </c>
       <c r="O51" s="13">
-        <v>42189692</v>
+        <v>39972725</v>
       </c>
       <c r="P51" s="13">
-        <v>41106186</v>
+        <v>41898032</v>
       </c>
       <c r="Q51" s="13">
-        <v>39972725</v>
+        <v>39736161</v>
       </c>
       <c r="R51" s="13">
-        <v>41898032</v>
+        <v>40036776</v>
       </c>
       <c r="S51" s="13">
-        <v>39736161</v>
+        <v>39988930</v>
       </c>
       <c r="T51" s="13">
-        <v>40036776</v>
+        <v>40685865</v>
       </c>
       <c r="U51" s="13">
-        <v>39988930</v>
+        <v>42383475</v>
       </c>
       <c r="V51" s="13">
-        <v>40685865</v>
+        <v>47688119</v>
       </c>
       <c r="W51" s="13">
-        <v>42383475</v>
+        <v>48978432</v>
       </c>
       <c r="X51" s="13">
-        <v>47688119</v>
+        <v>52159113</v>
       </c>
       <c r="Y51" s="13">
-        <v>48978432</v>
+        <v>54998016</v>
       </c>
       <c r="Z51" s="13">
-        <v>52159113</v>
+        <v>61943836</v>
       </c>
       <c r="AA51" s="13">
-        <v>54998016</v>
+        <v>66310262</v>
       </c>
       <c r="AB51" s="13">
-        <v>61943836</v>
+        <v>43528516</v>
       </c>
       <c r="AC51" s="13">
-        <v>66310262</v>
+        <v>47484456</v>
       </c>
       <c r="AD51" s="13">
-        <v>43528516</v>
+        <v>51017162</v>
       </c>
       <c r="AE51" s="13">
-        <v>47484456</v>
+        <v>47422068</v>
       </c>
       <c r="AF51" s="13">
-        <v>51017162</v>
+        <v>40499524</v>
       </c>
       <c r="AG51" s="13">
-        <v>47422068</v>
+        <v>55841236</v>
       </c>
       <c r="AH51" s="13">
-        <v>40499524</v>
+        <v>59016405</v>
       </c>
       <c r="AI51" s="13">
-        <v>55841236</v>
+        <v>55055403</v>
       </c>
       <c r="AJ51" s="13">
-        <v>59016405</v>
+        <v>55921679</v>
       </c>
       <c r="AK51" s="13">
-        <v>55055403</v>
+        <v>60454534</v>
       </c>
       <c r="AL51" s="13">
-        <v>55921679</v>
+        <v>64104971</v>
       </c>
       <c r="AM51" s="13">
-        <v>60454534</v>
+        <v>68333700</v>
       </c>
       <c r="AN51" s="13">
-        <v>64104971</v>
+        <v>88679795</v>
       </c>
       <c r="AO51" s="13">
-        <v>68333700</v>
+        <v>89041148</v>
       </c>
       <c r="AP51" s="13">
-        <v>88679795</v>
+        <v>120710469</v>
       </c>
       <c r="AQ51" s="13">
-        <v>89041148</v>
+        <v>127905934</v>
       </c>
       <c r="AR51" s="13">
-        <v>120710469</v>
+        <v>101497627</v>
       </c>
       <c r="AS51" s="13">
-        <v>127905934</v>
+        <v>110556766</v>
       </c>
       <c r="AT51" s="13">
-        <v>101448239</v>
+        <v>146546027</v>
       </c>
       <c r="AU51" s="13">
-        <v>110556766</v>
+        <v>169079695</v>
       </c>
       <c r="AV51" s="13">
-        <v>146546027</v>
+        <v>135906322</v>
       </c>
       <c r="AW51" s="13">
-        <v>171199991</v>
+        <v>120959105</v>
       </c>
       <c r="AX51" s="13">
-        <v>135906322</v>
+        <v>124479305</v>
       </c>
       <c r="AY51" s="13">
-        <v>120959105</v>
+        <v>140332799</v>
       </c>
       <c r="AZ51" s="13">
-        <v>132413532</v>
+        <v>153061989</v>
       </c>
       <c r="BA51" s="13">
-        <v>140332799</v>
+        <v>129609883</v>
       </c>
       <c r="BB51" s="13">
-        <v>153061989</v>
+        <v>119415250</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/urea/shapdis/product/monthly.xlsx
+++ b/database/industries/urea/shapdis/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="77">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3290,154 +3290,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>135946</v>
+        <v>150049</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>150049</v>
+        <v>149827</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>149827</v>
+        <v>178925</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>178925</v>
+        <v>174933</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>174933</v>
+        <v>110779</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>110779</v>
+        <v>171922</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>171922</v>
+        <v>159236</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>159236</v>
+        <v>135124</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>135124</v>
+        <v>149173</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>149173</v>
+        <v>125268</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>125268</v>
+        <v>102544</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>102544</v>
+        <v>37353</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>37353</v>
+        <v>171550</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>171550</v>
+        <v>191766</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>191766</v>
+        <v>166090</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>166090</v>
+        <v>171488</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>171488</v>
+        <v>125841</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>125841</v>
+        <v>166934</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>166934</v>
+        <v>180532</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>180532</v>
+        <v>180235</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>180235</v>
+        <v>177449</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>177449</v>
+        <v>168304</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>168304</v>
+        <v>134863</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>134863</v>
+        <v>179834</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>179834</v>
+        <v>169858</v>
       </c>
       <c r="AD11" s="12" t="n">
-        <v>169858</v>
+        <v>191388</v>
       </c>
       <c r="AE11" s="12" t="n">
-        <v>191388</v>
+        <v>179313</v>
       </c>
       <c r="AF11" s="12" t="n">
-        <v>179313</v>
+        <v>183529</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>183529</v>
+        <v>164775</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>164775</v>
+        <v>178647</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>178647</v>
+        <v>180718</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>180718</v>
+        <v>182476</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>182476</v>
+        <v>184015</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>184015</v>
+        <v>134757</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>134757</v>
+        <v>116691</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>116691</v>
+        <v>126726</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>126726</v>
+        <v>178333</v>
       </c>
       <c r="AP11" s="12" t="n">
-        <v>178333</v>
+        <v>187614</v>
       </c>
       <c r="AQ11" s="12" t="n">
-        <v>187614</v>
+        <v>180706</v>
       </c>
       <c r="AR11" s="12" t="n">
-        <v>180706</v>
+        <v>179516</v>
       </c>
       <c r="AS11" s="12" t="n">
-        <v>179516</v>
+        <v>176477</v>
       </c>
       <c r="AT11" s="12" t="n">
-        <v>176477</v>
+        <v>178057</v>
       </c>
       <c r="AU11" s="12" t="n">
-        <v>178057</v>
+        <v>187285</v>
       </c>
       <c r="AV11" s="12" t="n">
-        <v>187285</v>
+        <v>180385</v>
       </c>
       <c r="AW11" s="12" t="n">
-        <v>180385</v>
+        <v>145998</v>
       </c>
       <c r="AX11" s="12" t="n">
-        <v>145998</v>
+        <v>159553</v>
       </c>
       <c r="AY11" s="12" t="n">
-        <v>159553</v>
+        <v>125374</v>
       </c>
       <c r="AZ11" s="12" t="n">
-        <v>125374</v>
+        <v>117528</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>117528</v>
+        <v>149772</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>149772</v>
+        <v>192940</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,154 +3449,154 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>222725</v>
+        <v>266591</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>266591</v>
+        <v>252220</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>252220</v>
+        <v>289121</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>289121</v>
+        <v>272248</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>272248</v>
+        <v>172083</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>172083</v>
+        <v>268404</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>268404</v>
+        <v>238977</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>238977</v>
+        <v>231282</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>231282</v>
+        <v>231711</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>231711</v>
+        <v>216718</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>216718</v>
+        <v>173302</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>173302</v>
+        <v>85515</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>85515</v>
+        <v>274454</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>274454</v>
+        <v>298990</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>298990</v>
+        <v>284459</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>284459</v>
+        <v>265583</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>265583</v>
+        <v>196851</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>196851</v>
+        <v>271215</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>271215</v>
+        <v>288370</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>288370</v>
+        <v>283237</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>283237</v>
+        <v>286485</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>286485</v>
+        <v>279469</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>279469</v>
+        <v>216906</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>216906</v>
+        <v>279355</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>279355</v>
+        <v>267862</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>267862</v>
+        <v>299911</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>299911</v>
+        <v>277491</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>277491</v>
+        <v>283304</v>
       </c>
       <c r="AG12" s="14" t="n">
-        <v>283304</v>
+        <v>258736</v>
       </c>
       <c r="AH12" s="14" t="n">
-        <v>258736</v>
+        <v>279802</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>279802</v>
+        <v>280120</v>
       </c>
       <c r="AJ12" s="14" t="n">
-        <v>280120</v>
+        <v>282960</v>
       </c>
       <c r="AK12" s="14" t="n">
-        <v>282960</v>
+        <v>280272</v>
       </c>
       <c r="AL12" s="14" t="n">
-        <v>280272</v>
+        <v>210275</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>210275</v>
+        <v>163163</v>
       </c>
       <c r="AN12" s="14" t="n">
-        <v>163163</v>
+        <v>188746</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>188746</v>
+        <v>272791</v>
       </c>
       <c r="AP12" s="14" t="n">
-        <v>272791</v>
+        <v>295487</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>295487</v>
+        <v>293527</v>
       </c>
       <c r="AR12" s="14" t="n">
-        <v>293527</v>
+        <v>258459</v>
       </c>
       <c r="AS12" s="14" t="n">
-        <v>258459</v>
+        <v>270113</v>
       </c>
       <c r="AT12" s="14" t="n">
-        <v>270113</v>
+        <v>280799</v>
       </c>
       <c r="AU12" s="14" t="n">
-        <v>280799</v>
+        <v>291318</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>291318</v>
+        <v>286177</v>
       </c>
       <c r="AW12" s="14" t="n">
-        <v>286177</v>
+        <v>230526</v>
       </c>
       <c r="AX12" s="14" t="n">
-        <v>230526</v>
+        <v>251480</v>
       </c>
       <c r="AY12" s="14" t="n">
-        <v>251480</v>
+        <v>197201</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>197201</v>
+        <v>119696</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>119696</v>
+        <v>199729</v>
       </c>
       <c r="BB12" s="14" t="n">
-        <v>199729</v>
+        <v>284077</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,8 +3748,8 @@
       <c r="AY13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AZ13" s="15" t="s">
-        <v>59</v>
+      <c r="AZ13" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="BA13" s="15" t="n">
         <v>0</v>
@@ -3907,8 +3907,8 @@
       <c r="AY14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AZ14" s="16" t="s">
-        <v>59</v>
+      <c r="AZ14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA14" s="16" t="n">
         <v>0</v>
@@ -4066,8 +4066,8 @@
       <c r="AY15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AZ15" s="15" t="s">
-        <v>59</v>
+      <c r="AZ15" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="BA15" s="15" t="n">
         <v>0</v>
@@ -4196,8 +4196,8 @@
       <c r="W17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="X17" s="20" t="s">
-        <v>59</v>
+      <c r="X17" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="Y17" s="20" t="n">
         <v>0</v>
@@ -4297,154 +4297,154 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="n">
-        <v>358671</v>
+        <v>416640</v>
       </c>
       <c r="F18" s="22" t="n">
-        <v>416640</v>
+        <v>402047</v>
       </c>
       <c r="G18" s="22" t="n">
-        <v>402047</v>
+        <v>468046</v>
       </c>
       <c r="H18" s="22" t="n">
-        <v>468046</v>
+        <v>447181</v>
       </c>
       <c r="I18" s="22" t="n">
-        <v>447181</v>
+        <v>282862</v>
       </c>
       <c r="J18" s="22" t="n">
-        <v>282862</v>
+        <v>440326</v>
       </c>
       <c r="K18" s="22" t="n">
-        <v>440326</v>
+        <v>398213</v>
       </c>
       <c r="L18" s="22" t="n">
-        <v>398213</v>
+        <v>366406</v>
       </c>
       <c r="M18" s="22" t="n">
-        <v>366406</v>
+        <v>380884</v>
       </c>
       <c r="N18" s="22" t="n">
-        <v>380884</v>
+        <v>341986</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>341986</v>
+        <v>275846</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>275846</v>
+        <v>122868</v>
       </c>
       <c r="Q18" s="22" t="n">
-        <v>122868</v>
+        <v>446004</v>
       </c>
       <c r="R18" s="22" t="n">
-        <v>446004</v>
+        <v>490756</v>
       </c>
       <c r="S18" s="22" t="n">
-        <v>490756</v>
+        <v>450549</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>450549</v>
+        <v>437071</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>437071</v>
+        <v>322692</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>322692</v>
+        <v>438149</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>438149</v>
+        <v>468902</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>468902</v>
+        <v>463472</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>463472</v>
+        <v>463934</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>463934</v>
+        <v>447773</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>447773</v>
+        <v>351769</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>351769</v>
+        <v>459189</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>459189</v>
+        <v>437720</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>437720</v>
+        <v>491299</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>491299</v>
+        <v>456804</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>456804</v>
+        <v>466833</v>
       </c>
       <c r="AG18" s="22" t="n">
-        <v>466833</v>
+        <v>423511</v>
       </c>
       <c r="AH18" s="22" t="n">
-        <v>423511</v>
+        <v>458449</v>
       </c>
       <c r="AI18" s="22" t="n">
-        <v>458449</v>
+        <v>460838</v>
       </c>
       <c r="AJ18" s="22" t="n">
-        <v>460838</v>
+        <v>465436</v>
       </c>
       <c r="AK18" s="22" t="n">
-        <v>465436</v>
+        <v>464287</v>
       </c>
       <c r="AL18" s="22" t="n">
-        <v>464287</v>
+        <v>345032</v>
       </c>
       <c r="AM18" s="22" t="n">
-        <v>345032</v>
+        <v>279854</v>
       </c>
       <c r="AN18" s="22" t="n">
-        <v>279854</v>
+        <v>315472</v>
       </c>
       <c r="AO18" s="22" t="n">
-        <v>315472</v>
+        <v>451124</v>
       </c>
       <c r="AP18" s="22" t="n">
-        <v>451124</v>
+        <v>483101</v>
       </c>
       <c r="AQ18" s="22" t="n">
-        <v>483101</v>
+        <v>474233</v>
       </c>
       <c r="AR18" s="22" t="n">
-        <v>474233</v>
+        <v>437975</v>
       </c>
       <c r="AS18" s="22" t="n">
-        <v>437975</v>
+        <v>446590</v>
       </c>
       <c r="AT18" s="22" t="n">
-        <v>446590</v>
+        <v>458856</v>
       </c>
       <c r="AU18" s="22" t="n">
-        <v>458856</v>
+        <v>478603</v>
       </c>
       <c r="AV18" s="22" t="n">
-        <v>478603</v>
+        <v>466562</v>
       </c>
       <c r="AW18" s="22" t="n">
-        <v>466562</v>
+        <v>376524</v>
       </c>
       <c r="AX18" s="22" t="n">
-        <v>376524</v>
+        <v>411033</v>
       </c>
       <c r="AY18" s="22" t="n">
-        <v>411033</v>
+        <v>322575</v>
       </c>
       <c r="AZ18" s="22" t="n">
-        <v>322575</v>
+        <v>237224</v>
       </c>
       <c r="BA18" s="22" t="n">
-        <v>237224</v>
+        <v>349501</v>
       </c>
       <c r="BB18" s="22" t="n">
-        <v>349501</v>
+        <v>477017</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4890,10 +4890,10 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="n">
-        <v>9350</v>
+        <v>0</v>
       </c>
       <c r="F25" s="15" t="n">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="G25" s="15" t="n">
         <v>18500</v>
@@ -4905,64 +4905,64 @@
         <v>18500</v>
       </c>
       <c r="J25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15" t="n">
+        <v>37003</v>
+      </c>
+      <c r="L25" s="15" t="n">
+        <v>18501</v>
+      </c>
+      <c r="M25" s="15" t="n">
         <v>18500</v>
       </c>
-      <c r="K25" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="15" t="n">
-        <v>37003</v>
-      </c>
-      <c r="M25" s="15" t="n">
+      <c r="N25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="15" t="n">
+        <v>13500</v>
+      </c>
+      <c r="Q25" s="15" t="n">
+        <v>6001</v>
+      </c>
+      <c r="R25" s="15" t="n">
         <v>18501</v>
       </c>
-      <c r="N25" s="15" t="n">
+      <c r="S25" s="15" t="n">
         <v>18500</v>
       </c>
-      <c r="O25" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="15" t="n">
-        <v>13500</v>
-      </c>
-      <c r="R25" s="15" t="n">
-        <v>6001</v>
-      </c>
-      <c r="S25" s="15" t="n">
+      <c r="T25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="15" t="n">
         <v>18501</v>
       </c>
-      <c r="T25" s="15" t="n">
+      <c r="V25" s="15" t="n">
         <v>18500</v>
-      </c>
-      <c r="U25" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="15" t="n">
-        <v>18501</v>
       </c>
       <c r="W25" s="15" t="n">
         <v>18500</v>
       </c>
       <c r="X25" s="15" t="n">
+        <v>18501</v>
+      </c>
+      <c r="Y25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="15" t="n">
+        <v>18600</v>
+      </c>
+      <c r="AA25" s="15" t="n">
         <v>18500</v>
       </c>
-      <c r="Y25" s="15" t="n">
+      <c r="AB25" s="15" t="n">
         <v>18501</v>
       </c>
-      <c r="Z25" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="15" t="n">
-        <v>18600</v>
-      </c>
-      <c r="AB25" s="15" t="n">
+      <c r="AC25" s="15" t="n">
         <v>18500</v>
-      </c>
-      <c r="AC25" s="15" t="n">
-        <v>18501</v>
       </c>
       <c r="AD25" s="15" t="n">
         <v>18500</v>
@@ -4971,16 +4971,16 @@
         <v>18500</v>
       </c>
       <c r="AF25" s="15" t="n">
+        <v>37000</v>
+      </c>
+      <c r="AG25" s="15" t="n">
+        <v>18501</v>
+      </c>
+      <c r="AH25" s="15" t="n">
         <v>18500</v>
       </c>
-      <c r="AG25" s="15" t="n">
-        <v>37000</v>
-      </c>
-      <c r="AH25" s="15" t="n">
-        <v>18501</v>
-      </c>
       <c r="AI25" s="15" t="n">
-        <v>18500</v>
+        <v>23001</v>
       </c>
       <c r="AJ25" s="15" t="n">
         <v>23001</v>
@@ -4989,28 +4989,28 @@
         <v>23001</v>
       </c>
       <c r="AL25" s="15" t="n">
-        <v>23001</v>
+        <v>23000</v>
       </c>
       <c r="AM25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="15" t="n">
+        <v>18501</v>
+      </c>
+      <c r="AO25" s="15" t="n">
+        <v>26415</v>
+      </c>
+      <c r="AP25" s="15" t="n">
+        <v>4703</v>
+      </c>
+      <c r="AQ25" s="15" t="n">
+        <v>23212</v>
+      </c>
+      <c r="AR25" s="15" t="n">
+        <v>41501</v>
+      </c>
+      <c r="AS25" s="15" t="n">
         <v>23000</v>
-      </c>
-      <c r="AN25" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="15" t="n">
-        <v>18501</v>
-      </c>
-      <c r="AP25" s="15" t="n">
-        <v>26415</v>
-      </c>
-      <c r="AQ25" s="15" t="n">
-        <v>4703</v>
-      </c>
-      <c r="AR25" s="15" t="n">
-        <v>23212</v>
-      </c>
-      <c r="AS25" s="15" t="n">
-        <v>41501</v>
       </c>
       <c r="AT25" s="15" t="n">
         <v>23000</v>
@@ -5019,25 +5019,25 @@
         <v>23000</v>
       </c>
       <c r="AV25" s="15" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="AW25" s="15" t="n">
-        <v>0</v>
+        <v>48720</v>
       </c>
       <c r="AX25" s="15" t="n">
-        <v>48720</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="15" t="n">
-        <v>0</v>
+        <v>25601</v>
       </c>
       <c r="AZ25" s="15" t="n">
-        <v>25601</v>
+        <v>32798</v>
       </c>
       <c r="BA25" s="15" t="n">
-        <v>32798</v>
+        <v>44101</v>
       </c>
       <c r="BB25" s="15" t="n">
-        <v>44101</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,148 +5049,148 @@
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="n">
-        <v>275398</v>
+        <v>231584</v>
       </c>
       <c r="F26" s="16" t="n">
-        <v>231584</v>
+        <v>233730</v>
       </c>
       <c r="G26" s="16" t="n">
-        <v>233730</v>
+        <v>249774</v>
       </c>
       <c r="H26" s="16" t="n">
-        <v>249774</v>
+        <v>169661</v>
       </c>
       <c r="I26" s="16" t="n">
-        <v>169661</v>
+        <v>325448</v>
       </c>
       <c r="J26" s="16" t="n">
-        <v>325448</v>
+        <v>274658</v>
       </c>
       <c r="K26" s="16" t="n">
-        <v>274658</v>
+        <v>56330</v>
       </c>
       <c r="L26" s="16" t="n">
-        <v>56330</v>
+        <v>255085</v>
       </c>
       <c r="M26" s="16" t="n">
-        <v>255085</v>
+        <v>190956</v>
       </c>
       <c r="N26" s="16" t="n">
-        <v>190956</v>
+        <v>131768</v>
       </c>
       <c r="O26" s="16" t="n">
-        <v>131768</v>
+        <v>335575</v>
       </c>
       <c r="P26" s="16" t="n">
-        <v>335575</v>
+        <v>275141</v>
       </c>
       <c r="Q26" s="16" t="n">
-        <v>275141</v>
+        <v>295317</v>
       </c>
       <c r="R26" s="16" t="n">
-        <v>295317</v>
+        <v>152899</v>
       </c>
       <c r="S26" s="16" t="n">
-        <v>152899</v>
+        <v>357990</v>
       </c>
       <c r="T26" s="16" t="n">
-        <v>357990</v>
+        <v>175013</v>
       </c>
       <c r="U26" s="16" t="n">
-        <v>175013</v>
+        <v>253107</v>
       </c>
       <c r="V26" s="16" t="n">
-        <v>253107</v>
+        <v>230417</v>
       </c>
       <c r="W26" s="16" t="n">
-        <v>230417</v>
+        <v>304559</v>
       </c>
       <c r="X26" s="16" t="n">
-        <v>304559</v>
+        <v>375987</v>
       </c>
       <c r="Y26" s="16" t="n">
-        <v>375987</v>
+        <v>269242</v>
       </c>
       <c r="Z26" s="16" t="n">
-        <v>269242</v>
+        <v>321178</v>
       </c>
       <c r="AA26" s="16" t="n">
-        <v>321178</v>
+        <v>240447</v>
       </c>
       <c r="AB26" s="16" t="n">
-        <v>240447</v>
+        <v>205700</v>
       </c>
       <c r="AC26" s="16" t="n">
-        <v>205700</v>
+        <v>327253</v>
       </c>
       <c r="AD26" s="16" t="n">
-        <v>327253</v>
+        <v>293266</v>
       </c>
       <c r="AE26" s="16" t="n">
-        <v>293266</v>
+        <v>254605</v>
       </c>
       <c r="AF26" s="16" t="n">
-        <v>254605</v>
+        <v>250264</v>
       </c>
       <c r="AG26" s="16" t="n">
-        <v>250264</v>
+        <v>157678</v>
       </c>
       <c r="AH26" s="16" t="n">
-        <v>157678</v>
+        <v>371245</v>
       </c>
       <c r="AI26" s="16" t="n">
-        <v>371245</v>
+        <v>344576</v>
       </c>
       <c r="AJ26" s="16" t="n">
-        <v>344576</v>
+        <v>240346</v>
       </c>
       <c r="AK26" s="16" t="n">
-        <v>240346</v>
+        <v>282274</v>
       </c>
       <c r="AL26" s="16" t="n">
-        <v>282274</v>
+        <v>337777</v>
       </c>
       <c r="AM26" s="16" t="n">
-        <v>337777</v>
+        <v>142910</v>
       </c>
       <c r="AN26" s="16" t="n">
-        <v>142910</v>
+        <v>181564</v>
       </c>
       <c r="AO26" s="16" t="n">
-        <v>181564</v>
+        <v>216768</v>
       </c>
       <c r="AP26" s="16" t="n">
-        <v>216768</v>
+        <v>327610</v>
       </c>
       <c r="AQ26" s="16" t="n">
-        <v>327610</v>
+        <v>200174</v>
       </c>
       <c r="AR26" s="16" t="n">
-        <v>200174</v>
+        <v>262559</v>
       </c>
       <c r="AS26" s="16" t="n">
-        <v>262559</v>
+        <v>171022</v>
       </c>
       <c r="AT26" s="16" t="n">
-        <v>171022</v>
+        <v>302828</v>
       </c>
       <c r="AU26" s="16" t="n">
-        <v>302828</v>
+        <v>502090</v>
       </c>
       <c r="AV26" s="16" t="n">
-        <v>502090</v>
+        <v>181773</v>
       </c>
       <c r="AW26" s="16" t="n">
-        <v>181773</v>
+        <v>313083</v>
       </c>
       <c r="AX26" s="16" t="n">
-        <v>313083</v>
+        <v>278389</v>
       </c>
       <c r="AY26" s="16" t="n">
-        <v>278389</v>
+        <v>152700</v>
       </c>
       <c r="AZ26" s="16" t="n">
-        <v>152700</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="16" t="n">
         <v>0</v>
@@ -5348,14 +5348,14 @@
       <c r="AY27" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AZ27" s="15" t="s">
-        <v>59</v>
+      <c r="AZ27" s="15" t="n">
+        <v>65195</v>
       </c>
       <c r="BA27" s="15" t="n">
-        <v>65195</v>
+        <v>123728</v>
       </c>
       <c r="BB27" s="15" t="n">
-        <v>123728</v>
+        <v>83442</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5507,14 +5507,14 @@
       <c r="AY28" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AZ28" s="16" t="s">
-        <v>59</v>
+      <c r="AZ28" s="16" t="n">
+        <v>190</v>
       </c>
       <c r="BA28" s="16" t="n">
-        <v>190</v>
+        <v>10973</v>
       </c>
       <c r="BB28" s="16" t="n">
-        <v>973</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5666,14 +5666,14 @@
       <c r="AY29" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AZ29" s="15" t="s">
-        <v>59</v>
+      <c r="AZ29" s="15" t="n">
+        <v>99451</v>
       </c>
       <c r="BA29" s="15" t="n">
-        <v>99451</v>
+        <v>81991</v>
       </c>
       <c r="BB29" s="15" t="n">
-        <v>81991</v>
+        <v>192679</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,8 +5796,8 @@
       <c r="W31" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="X31" s="20" t="s">
-        <v>59</v>
+      <c r="X31" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="Y31" s="20" t="n">
         <v>0</v>
@@ -6010,8 +6010,8 @@
       <c r="W33" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="X33" s="20" t="s">
-        <v>59</v>
+      <c r="X33" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="Y33" s="20" t="n">
         <v>0</v>
@@ -6111,154 +6111,154 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="n">
-        <v>284748</v>
+        <v>231584</v>
       </c>
       <c r="F34" s="22" t="n">
-        <v>231584</v>
+        <v>252230</v>
       </c>
       <c r="G34" s="22" t="n">
-        <v>252230</v>
+        <v>268274</v>
       </c>
       <c r="H34" s="22" t="n">
-        <v>268274</v>
+        <v>188161</v>
       </c>
       <c r="I34" s="22" t="n">
-        <v>188161</v>
+        <v>343948</v>
       </c>
       <c r="J34" s="22" t="n">
-        <v>343948</v>
+        <v>274658</v>
       </c>
       <c r="K34" s="22" t="n">
-        <v>274658</v>
+        <v>93333</v>
       </c>
       <c r="L34" s="22" t="n">
-        <v>93333</v>
+        <v>273586</v>
       </c>
       <c r="M34" s="22" t="n">
-        <v>273586</v>
+        <v>209456</v>
       </c>
       <c r="N34" s="22" t="n">
-        <v>209456</v>
+        <v>131768</v>
       </c>
       <c r="O34" s="22" t="n">
-        <v>131768</v>
+        <v>335575</v>
       </c>
       <c r="P34" s="22" t="n">
-        <v>335575</v>
+        <v>288641</v>
       </c>
       <c r="Q34" s="22" t="n">
-        <v>288641</v>
+        <v>301318</v>
       </c>
       <c r="R34" s="22" t="n">
-        <v>301318</v>
+        <v>171400</v>
       </c>
       <c r="S34" s="22" t="n">
-        <v>171400</v>
+        <v>376490</v>
       </c>
       <c r="T34" s="22" t="n">
-        <v>376490</v>
+        <v>175013</v>
       </c>
       <c r="U34" s="22" t="n">
-        <v>175013</v>
+        <v>271608</v>
       </c>
       <c r="V34" s="22" t="n">
-        <v>271608</v>
+        <v>248917</v>
       </c>
       <c r="W34" s="22" t="n">
-        <v>248917</v>
+        <v>323059</v>
       </c>
       <c r="X34" s="22" t="n">
-        <v>323059</v>
+        <v>394488</v>
       </c>
       <c r="Y34" s="22" t="n">
-        <v>394488</v>
+        <v>269242</v>
       </c>
       <c r="Z34" s="22" t="n">
-        <v>269242</v>
+        <v>339778</v>
       </c>
       <c r="AA34" s="22" t="n">
-        <v>339778</v>
+        <v>258947</v>
       </c>
       <c r="AB34" s="22" t="n">
-        <v>258947</v>
+        <v>224201</v>
       </c>
       <c r="AC34" s="22" t="n">
-        <v>224201</v>
+        <v>345753</v>
       </c>
       <c r="AD34" s="22" t="n">
-        <v>345753</v>
+        <v>311766</v>
       </c>
       <c r="AE34" s="22" t="n">
-        <v>311766</v>
+        <v>273105</v>
       </c>
       <c r="AF34" s="22" t="n">
-        <v>273105</v>
+        <v>287264</v>
       </c>
       <c r="AG34" s="22" t="n">
-        <v>287264</v>
+        <v>176179</v>
       </c>
       <c r="AH34" s="22" t="n">
-        <v>176179</v>
+        <v>389745</v>
       </c>
       <c r="AI34" s="22" t="n">
-        <v>389745</v>
+        <v>367577</v>
       </c>
       <c r="AJ34" s="22" t="n">
-        <v>367577</v>
+        <v>263347</v>
       </c>
       <c r="AK34" s="22" t="n">
-        <v>263347</v>
+        <v>305275</v>
       </c>
       <c r="AL34" s="22" t="n">
-        <v>305275</v>
+        <v>360777</v>
       </c>
       <c r="AM34" s="22" t="n">
-        <v>360777</v>
+        <v>142910</v>
       </c>
       <c r="AN34" s="22" t="n">
-        <v>142910</v>
+        <v>200065</v>
       </c>
       <c r="AO34" s="22" t="n">
-        <v>200065</v>
+        <v>243183</v>
       </c>
       <c r="AP34" s="22" t="n">
-        <v>243183</v>
+        <v>332313</v>
       </c>
       <c r="AQ34" s="22" t="n">
-        <v>332313</v>
+        <v>223386</v>
       </c>
       <c r="AR34" s="22" t="n">
-        <v>223386</v>
+        <v>304060</v>
       </c>
       <c r="AS34" s="22" t="n">
-        <v>304060</v>
+        <v>194022</v>
       </c>
       <c r="AT34" s="22" t="n">
-        <v>194022</v>
+        <v>325828</v>
       </c>
       <c r="AU34" s="22" t="n">
-        <v>325828</v>
+        <v>525090</v>
       </c>
       <c r="AV34" s="22" t="n">
-        <v>525090</v>
+        <v>181773</v>
       </c>
       <c r="AW34" s="22" t="n">
-        <v>181773</v>
+        <v>361803</v>
       </c>
       <c r="AX34" s="22" t="n">
-        <v>361803</v>
+        <v>278389</v>
       </c>
       <c r="AY34" s="22" t="n">
-        <v>278389</v>
+        <v>178301</v>
       </c>
       <c r="AZ34" s="22" t="n">
-        <v>178301</v>
+        <v>197634</v>
       </c>
       <c r="BA34" s="22" t="n">
-        <v>197634</v>
+        <v>260793</v>
       </c>
       <c r="BB34" s="22" t="n">
-        <v>250793</v>
+        <v>302386</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6704,154 +6704,154 @@
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="n">
-        <v>133650</v>
+        <v>0</v>
       </c>
       <c r="F41" s="15" t="n">
-        <v>0</v>
+        <v>269983</v>
       </c>
       <c r="G41" s="15" t="n">
-        <v>269983</v>
+        <v>279310</v>
       </c>
       <c r="H41" s="15" t="n">
-        <v>279310</v>
+        <v>293710</v>
       </c>
       <c r="I41" s="15" t="n">
-        <v>293710</v>
+        <v>308443</v>
       </c>
       <c r="J41" s="15" t="n">
-        <v>308443</v>
+        <v>0</v>
       </c>
       <c r="K41" s="15" t="n">
-        <v>0</v>
+        <v>587752</v>
       </c>
       <c r="L41" s="15" t="n">
-        <v>587752</v>
+        <v>297947</v>
       </c>
       <c r="M41" s="15" t="n">
-        <v>297947</v>
+        <v>297128</v>
       </c>
       <c r="N41" s="15" t="n">
-        <v>297128</v>
+        <v>0</v>
       </c>
       <c r="O41" s="15" t="n">
         <v>0</v>
       </c>
       <c r="P41" s="15" t="n">
-        <v>0</v>
+        <v>237246</v>
       </c>
       <c r="Q41" s="15" t="n">
-        <v>237246</v>
+        <v>116511</v>
       </c>
       <c r="R41" s="15" t="n">
-        <v>116511</v>
+        <v>372508</v>
       </c>
       <c r="S41" s="15" t="n">
-        <v>372508</v>
+        <v>279868</v>
       </c>
       <c r="T41" s="15" t="n">
-        <v>279868</v>
+        <v>0</v>
       </c>
       <c r="U41" s="15" t="n">
-        <v>0</v>
+        <v>338097</v>
       </c>
       <c r="V41" s="15" t="n">
-        <v>338097</v>
+        <v>370068</v>
       </c>
       <c r="W41" s="15" t="n">
-        <v>370068</v>
+        <v>414778</v>
       </c>
       <c r="X41" s="15" t="n">
-        <v>414778</v>
+        <v>480194</v>
       </c>
       <c r="Y41" s="15" t="n">
-        <v>480194</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="15" t="n">
-        <v>0</v>
+        <v>520445</v>
       </c>
       <c r="AA41" s="15" t="n">
-        <v>520445</v>
+        <v>519871</v>
       </c>
       <c r="AB41" s="15" t="n">
-        <v>519871</v>
+        <v>470099</v>
       </c>
       <c r="AC41" s="15" t="n">
-        <v>470099</v>
+        <v>499180</v>
       </c>
       <c r="AD41" s="15" t="n">
-        <v>499180</v>
+        <v>542905</v>
       </c>
       <c r="AE41" s="15" t="n">
-        <v>542905</v>
+        <v>667817</v>
       </c>
       <c r="AF41" s="15" t="n">
-        <v>667817</v>
+        <v>1403401</v>
       </c>
       <c r="AG41" s="15" t="n">
-        <v>1403401</v>
+        <v>863514</v>
       </c>
       <c r="AH41" s="15" t="n">
-        <v>863514</v>
+        <v>1299998</v>
       </c>
       <c r="AI41" s="15" t="n">
-        <v>1299998</v>
+        <v>2091308</v>
       </c>
       <c r="AJ41" s="15" t="n">
-        <v>2091308</v>
+        <v>2155701</v>
       </c>
       <c r="AK41" s="15" t="n">
-        <v>2155701</v>
+        <v>2142954</v>
       </c>
       <c r="AL41" s="15" t="n">
-        <v>2142954</v>
+        <v>2867672</v>
       </c>
       <c r="AM41" s="15" t="n">
-        <v>2867672</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="15" t="n">
-        <v>0</v>
+        <v>2299761</v>
       </c>
       <c r="AO41" s="15" t="n">
-        <v>2299761</v>
+        <v>3565180</v>
       </c>
       <c r="AP41" s="15" t="n">
-        <v>3565180</v>
+        <v>850906</v>
       </c>
       <c r="AQ41" s="15" t="n">
-        <v>850906</v>
+        <v>4851537</v>
       </c>
       <c r="AR41" s="15" t="n">
-        <v>4851537</v>
+        <v>8485322</v>
       </c>
       <c r="AS41" s="15" t="n">
-        <v>8485322</v>
+        <v>4572232</v>
       </c>
       <c r="AT41" s="15" t="n">
-        <v>4572232</v>
+        <v>4435078</v>
       </c>
       <c r="AU41" s="15" t="n">
-        <v>4435078</v>
+        <v>4299510</v>
       </c>
       <c r="AV41" s="15" t="n">
-        <v>4299510</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="15" t="n">
-        <v>0</v>
+        <v>9197732</v>
       </c>
       <c r="AX41" s="15" t="n">
-        <v>9197732</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="15" t="n">
-        <v>0</v>
+        <v>4669065</v>
       </c>
       <c r="AZ41" s="15" t="n">
-        <v>4669065</v>
+        <v>4954414</v>
       </c>
       <c r="BA41" s="15" t="n">
-        <v>4954414</v>
+        <v>7270765</v>
       </c>
       <c r="BB41" s="15" t="n">
-        <v>7267476</v>
+        <v>1780242</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6863,148 +6863,148 @@
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="n">
-        <v>3141431</v>
+        <v>3634354</v>
       </c>
       <c r="F42" s="16" t="n">
-        <v>3634354</v>
+        <v>4109647</v>
       </c>
       <c r="G42" s="16" t="n">
-        <v>4109647</v>
+        <v>4747876</v>
       </c>
       <c r="H42" s="16" t="n">
-        <v>4747876</v>
+        <v>3225814</v>
       </c>
       <c r="I42" s="16" t="n">
-        <v>3225814</v>
+        <v>8016855</v>
       </c>
       <c r="J42" s="16" t="n">
-        <v>8016855</v>
+        <v>6442505</v>
       </c>
       <c r="K42" s="16" t="n">
-        <v>6442505</v>
+        <v>1093020</v>
       </c>
       <c r="L42" s="16" t="n">
-        <v>1093020</v>
+        <v>5844152</v>
       </c>
       <c r="M42" s="16" t="n">
-        <v>5844152</v>
+        <v>3916867</v>
       </c>
       <c r="N42" s="16" t="n">
-        <v>3916867</v>
+        <v>2587309</v>
       </c>
       <c r="O42" s="16" t="n">
-        <v>2587309</v>
+        <v>6906953</v>
       </c>
       <c r="P42" s="16" t="n">
-        <v>6906953</v>
+        <v>5888942</v>
       </c>
       <c r="Q42" s="16" t="n">
-        <v>5888942</v>
+        <v>6258081</v>
       </c>
       <c r="R42" s="16" t="n">
-        <v>6258081</v>
+        <v>3531193</v>
       </c>
       <c r="S42" s="16" t="n">
-        <v>3531193</v>
+        <v>8829418</v>
       </c>
       <c r="T42" s="16" t="n">
-        <v>8829418</v>
+        <v>4881451</v>
       </c>
       <c r="U42" s="16" t="n">
-        <v>4881451</v>
+        <v>7637038</v>
       </c>
       <c r="V42" s="16" t="n">
-        <v>7637038</v>
+        <v>8463100</v>
       </c>
       <c r="W42" s="16" t="n">
-        <v>8463100</v>
+        <v>11648782</v>
       </c>
       <c r="X42" s="16" t="n">
-        <v>11648782</v>
+        <v>16366156</v>
       </c>
       <c r="Y42" s="16" t="n">
-        <v>16366156</v>
+        <v>12784810</v>
       </c>
       <c r="Z42" s="16" t="n">
-        <v>12784810</v>
+        <v>16385590</v>
       </c>
       <c r="AA42" s="16" t="n">
-        <v>16385590</v>
+        <v>11402494</v>
       </c>
       <c r="AB42" s="16" t="n">
-        <v>11402494</v>
+        <v>8330752</v>
       </c>
       <c r="AC42" s="16" t="n">
-        <v>8330752</v>
+        <v>18274212</v>
       </c>
       <c r="AD42" s="16" t="n">
-        <v>18274212</v>
+        <v>17307505</v>
       </c>
       <c r="AE42" s="16" t="n">
-        <v>17307505</v>
+        <v>14017381</v>
       </c>
       <c r="AF42" s="16" t="n">
-        <v>14017381</v>
+        <v>13995183</v>
       </c>
       <c r="AG42" s="16" t="n">
-        <v>13995183</v>
+        <v>9532350</v>
       </c>
       <c r="AH42" s="16" t="n">
-        <v>9532350</v>
+        <v>23798650</v>
       </c>
       <c r="AI42" s="16" t="n">
-        <v>23798650</v>
+        <v>23546153</v>
       </c>
       <c r="AJ42" s="16" t="n">
-        <v>23546153</v>
+        <v>21313834</v>
       </c>
       <c r="AK42" s="16" t="n">
-        <v>21313834</v>
+        <v>25134001</v>
       </c>
       <c r="AL42" s="16" t="n">
-        <v>25134001</v>
+        <v>40773220</v>
       </c>
       <c r="AM42" s="16" t="n">
-        <v>40773220</v>
+        <v>18279037</v>
       </c>
       <c r="AN42" s="16" t="n">
-        <v>18279037</v>
+        <v>18419348</v>
       </c>
       <c r="AO42" s="16" t="n">
-        <v>18419348</v>
+        <v>23965169</v>
       </c>
       <c r="AP42" s="16" t="n">
-        <v>23965169</v>
+        <v>48009944</v>
       </c>
       <c r="AQ42" s="16" t="n">
-        <v>48009944</v>
+        <v>34269787</v>
       </c>
       <c r="AR42" s="16" t="n">
-        <v>34269787</v>
+        <v>35683428</v>
       </c>
       <c r="AS42" s="16" t="n">
-        <v>35683428</v>
+        <v>20686668</v>
       </c>
       <c r="AT42" s="16" t="n">
-        <v>20686668</v>
+        <v>40098525</v>
       </c>
       <c r="AU42" s="16" t="n">
-        <v>40098525</v>
+        <v>70459695</v>
       </c>
       <c r="AV42" s="16" t="n">
-        <v>70459695</v>
+        <v>27822537</v>
       </c>
       <c r="AW42" s="16" t="n">
-        <v>27822537</v>
+        <v>40578651</v>
       </c>
       <c r="AX42" s="16" t="n">
-        <v>40578651</v>
+        <v>33243892</v>
       </c>
       <c r="AY42" s="16" t="n">
-        <v>33243892</v>
+        <v>16423819</v>
       </c>
       <c r="AZ42" s="16" t="n">
-        <v>16423819</v>
+        <v>0</v>
       </c>
       <c r="BA42" s="16" t="n">
         <v>0</v>
@@ -7162,14 +7162,14 @@
       <c r="AY43" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AZ43" s="15" t="s">
-        <v>59</v>
+      <c r="AZ43" s="15" t="n">
+        <v>7147491</v>
       </c>
       <c r="BA43" s="15" t="n">
-        <v>7147491</v>
+        <v>10048659</v>
       </c>
       <c r="BB43" s="15" t="n">
-        <v>10048659</v>
+        <v>5733909</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7321,14 +7321,14 @@
       <c r="AY44" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AZ44" s="16" t="s">
-        <v>59</v>
+      <c r="AZ44" s="16" t="n">
+        <v>22765</v>
       </c>
       <c r="BA44" s="16" t="n">
-        <v>22765</v>
+        <v>893211</v>
       </c>
       <c r="BB44" s="16" t="n">
-        <v>81051</v>
+        <v>54205</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7480,14 +7480,14 @@
       <c r="AY45" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AZ45" s="15" t="s">
-        <v>59</v>
+      <c r="AZ45" s="15" t="n">
+        <v>9464349</v>
       </c>
       <c r="BA45" s="15" t="n">
-        <v>9464349</v>
+        <v>9333241</v>
       </c>
       <c r="BB45" s="15" t="n">
-        <v>10075054</v>
+        <v>18694794</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7612,8 +7612,8 @@
       <c r="W47" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="X47" s="20" t="s">
-        <v>59</v>
+      <c r="X47" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="Y47" s="23" t="n">
         <v>0</v>
@@ -7828,8 +7828,8 @@
       <c r="W49" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="X49" s="20" t="s">
-        <v>59</v>
+      <c r="X49" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="Y49" s="23" t="n">
         <v>0</v>
@@ -8044,8 +8044,8 @@
       <c r="W51" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="X51" s="15" t="s">
-        <v>59</v>
+      <c r="X51" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="Y51" s="15" t="n">
         <v>0</v>
@@ -8145,154 +8145,154 @@
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22" t="n">
-        <v>3275081</v>
+        <v>3634354</v>
       </c>
       <c r="F52" s="22" t="n">
-        <v>3634354</v>
+        <v>4379630</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>4379630</v>
+        <v>5027186</v>
       </c>
       <c r="H52" s="22" t="n">
-        <v>5027186</v>
+        <v>3519524</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>3519524</v>
+        <v>8325298</v>
       </c>
       <c r="J52" s="22" t="n">
-        <v>8325298</v>
+        <v>6442505</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>6442505</v>
+        <v>1680772</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>1680772</v>
+        <v>6142099</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>6142099</v>
+        <v>4213995</v>
       </c>
       <c r="N52" s="22" t="n">
-        <v>4213995</v>
+        <v>2587309</v>
       </c>
       <c r="O52" s="22" t="n">
-        <v>2587309</v>
+        <v>6906953</v>
       </c>
       <c r="P52" s="22" t="n">
-        <v>6906953</v>
+        <v>6126188</v>
       </c>
       <c r="Q52" s="22" t="n">
-        <v>6126188</v>
+        <v>6374592</v>
       </c>
       <c r="R52" s="22" t="n">
-        <v>6374592</v>
+        <v>3903701</v>
       </c>
       <c r="S52" s="22" t="n">
-        <v>3903701</v>
+        <v>9109286</v>
       </c>
       <c r="T52" s="22" t="n">
-        <v>9109286</v>
+        <v>4881451</v>
       </c>
       <c r="U52" s="22" t="n">
-        <v>4881451</v>
+        <v>7975135</v>
       </c>
       <c r="V52" s="22" t="n">
-        <v>7975135</v>
+        <v>8833168</v>
       </c>
       <c r="W52" s="22" t="n">
-        <v>8833168</v>
+        <v>12063560</v>
       </c>
       <c r="X52" s="22" t="n">
-        <v>12063560</v>
+        <v>16846350</v>
       </c>
       <c r="Y52" s="22" t="n">
-        <v>16846350</v>
+        <v>12784810</v>
       </c>
       <c r="Z52" s="22" t="n">
-        <v>12784810</v>
+        <v>16906035</v>
       </c>
       <c r="AA52" s="22" t="n">
-        <v>16906035</v>
+        <v>11922365</v>
       </c>
       <c r="AB52" s="22" t="n">
-        <v>11922365</v>
+        <v>8800851</v>
       </c>
       <c r="AC52" s="22" t="n">
-        <v>8800851</v>
+        <v>18773392</v>
       </c>
       <c r="AD52" s="22" t="n">
-        <v>18773392</v>
+        <v>17850410</v>
       </c>
       <c r="AE52" s="22" t="n">
-        <v>17850410</v>
+        <v>14685198</v>
       </c>
       <c r="AF52" s="22" t="n">
-        <v>14685198</v>
+        <v>15398584</v>
       </c>
       <c r="AG52" s="22" t="n">
-        <v>15398584</v>
+        <v>10395864</v>
       </c>
       <c r="AH52" s="22" t="n">
-        <v>10395864</v>
+        <v>25098648</v>
       </c>
       <c r="AI52" s="22" t="n">
-        <v>25098648</v>
+        <v>25637461</v>
       </c>
       <c r="AJ52" s="22" t="n">
-        <v>25637461</v>
+        <v>23469535</v>
       </c>
       <c r="AK52" s="22" t="n">
-        <v>23469535</v>
+        <v>27276955</v>
       </c>
       <c r="AL52" s="22" t="n">
-        <v>27276955</v>
+        <v>43640892</v>
       </c>
       <c r="AM52" s="22" t="n">
-        <v>43640892</v>
+        <v>18279037</v>
       </c>
       <c r="AN52" s="22" t="n">
-        <v>18279037</v>
+        <v>20719109</v>
       </c>
       <c r="AO52" s="22" t="n">
-        <v>20719109</v>
+        <v>27530349</v>
       </c>
       <c r="AP52" s="22" t="n">
-        <v>27530349</v>
+        <v>48860850</v>
       </c>
       <c r="AQ52" s="22" t="n">
-        <v>48860850</v>
+        <v>39121324</v>
       </c>
       <c r="AR52" s="22" t="n">
-        <v>39121324</v>
+        <v>44168750</v>
       </c>
       <c r="AS52" s="22" t="n">
-        <v>44168750</v>
+        <v>25258900</v>
       </c>
       <c r="AT52" s="22" t="n">
-        <v>25258900</v>
+        <v>44533603</v>
       </c>
       <c r="AU52" s="22" t="n">
-        <v>44533603</v>
+        <v>74759205</v>
       </c>
       <c r="AV52" s="22" t="n">
-        <v>74759205</v>
+        <v>27822537</v>
       </c>
       <c r="AW52" s="22" t="n">
-        <v>27822537</v>
+        <v>49776383</v>
       </c>
       <c r="AX52" s="22" t="n">
-        <v>49776383</v>
+        <v>33243892</v>
       </c>
       <c r="AY52" s="22" t="n">
-        <v>33243892</v>
+        <v>21092884</v>
       </c>
       <c r="AZ52" s="22" t="n">
-        <v>21092884</v>
+        <v>21589019</v>
       </c>
       <c r="BA52" s="22" t="n">
-        <v>21589019</v>
+        <v>27545876</v>
       </c>
       <c r="BB52" s="22" t="n">
-        <v>27472240</v>
+        <v>26263150</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8738,154 +8738,154 @@
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15" t="n">
-        <v>14294118</v>
+        <v>0</v>
       </c>
       <c r="F59" s="15" t="n">
-        <v>0</v>
+        <v>14593676</v>
       </c>
       <c r="G59" s="15" t="n">
-        <v>14593676</v>
+        <v>15097838</v>
       </c>
       <c r="H59" s="15" t="n">
-        <v>15097838</v>
+        <v>15876216</v>
       </c>
       <c r="I59" s="15" t="n">
-        <v>15876216</v>
+        <v>16672595</v>
       </c>
       <c r="J59" s="15" t="n">
-        <v>16672595</v>
+        <v>0</v>
       </c>
       <c r="K59" s="15" t="n">
-        <v>0</v>
+        <v>15883901</v>
       </c>
       <c r="L59" s="15" t="n">
-        <v>15883901</v>
+        <v>16104373</v>
       </c>
       <c r="M59" s="15" t="n">
-        <v>16104373</v>
+        <v>16060973</v>
       </c>
       <c r="N59" s="15" t="n">
-        <v>16060973</v>
+        <v>0</v>
       </c>
       <c r="O59" s="15" t="n">
         <v>0</v>
       </c>
       <c r="P59" s="15" t="n">
-        <v>0</v>
+        <v>17573778</v>
       </c>
       <c r="Q59" s="15" t="n">
-        <v>17573778</v>
+        <v>19415264</v>
       </c>
       <c r="R59" s="15" t="n">
-        <v>19415264</v>
+        <v>20134479</v>
       </c>
       <c r="S59" s="15" t="n">
-        <v>20134479</v>
+        <v>15128000</v>
       </c>
       <c r="T59" s="15" t="n">
-        <v>15128000</v>
+        <v>0</v>
       </c>
       <c r="U59" s="15" t="n">
-        <v>0</v>
+        <v>18274526</v>
       </c>
       <c r="V59" s="15" t="n">
-        <v>18274526</v>
+        <v>20003676</v>
       </c>
       <c r="W59" s="15" t="n">
-        <v>20003676</v>
+        <v>22420432</v>
       </c>
       <c r="X59" s="15" t="n">
-        <v>22420432</v>
-      </c>
-      <c r="Y59" s="15" t="n">
         <v>25955029</v>
       </c>
-      <c r="Z59" s="15" t="s">
-        <v>59</v>
+      <c r="Y59" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z59" s="15" t="n">
+        <v>27980914</v>
       </c>
       <c r="AA59" s="15" t="n">
-        <v>27980914</v>
+        <v>28101135</v>
       </c>
       <c r="AB59" s="15" t="n">
-        <v>28101135</v>
+        <v>25409383</v>
       </c>
       <c r="AC59" s="15" t="n">
-        <v>25409383</v>
+        <v>26982703</v>
       </c>
       <c r="AD59" s="15" t="n">
-        <v>26982703</v>
+        <v>29346216</v>
       </c>
       <c r="AE59" s="15" t="n">
-        <v>29346216</v>
+        <v>36098216</v>
       </c>
       <c r="AF59" s="15" t="n">
-        <v>36098216</v>
+        <v>37929757</v>
       </c>
       <c r="AG59" s="15" t="n">
-        <v>37929757</v>
+        <v>46673910</v>
       </c>
       <c r="AH59" s="15" t="n">
-        <v>46673910</v>
+        <v>70270162</v>
       </c>
       <c r="AI59" s="15" t="n">
-        <v>70270162</v>
+        <v>90922482</v>
       </c>
       <c r="AJ59" s="15" t="n">
-        <v>90922482</v>
+        <v>93722056</v>
       </c>
       <c r="AK59" s="15" t="n">
-        <v>93722056</v>
+        <v>93167862</v>
       </c>
       <c r="AL59" s="15" t="n">
-        <v>93167862</v>
-      </c>
-      <c r="AM59" s="15" t="n">
         <v>124681391</v>
       </c>
-      <c r="AN59" s="15" t="s">
-        <v>59</v>
+      <c r="AM59" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN59" s="15" t="n">
+        <v>124304686</v>
       </c>
       <c r="AO59" s="15" t="n">
-        <v>124304686</v>
+        <v>134968011</v>
       </c>
       <c r="AP59" s="15" t="n">
-        <v>134968011</v>
+        <v>180928344</v>
       </c>
       <c r="AQ59" s="15" t="n">
-        <v>180928344</v>
+        <v>209009866</v>
       </c>
       <c r="AR59" s="15" t="n">
-        <v>209009866</v>
+        <v>204460664</v>
       </c>
       <c r="AS59" s="15" t="n">
-        <v>204460664</v>
+        <v>198792696</v>
       </c>
       <c r="AT59" s="15" t="n">
-        <v>198792696</v>
+        <v>192829478</v>
       </c>
       <c r="AU59" s="15" t="n">
-        <v>192829478</v>
-      </c>
-      <c r="AV59" s="15" t="n">
         <v>186935217</v>
       </c>
-      <c r="AW59" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX59" s="15" t="n">
+      <c r="AV59" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW59" s="15" t="n">
         <v>188787603</v>
       </c>
-      <c r="AY59" s="15" t="s">
-        <v>59</v>
+      <c r="AX59" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY59" s="15" t="n">
+        <v>182378227</v>
       </c>
       <c r="AZ59" s="15" t="n">
-        <v>182378227</v>
+        <v>151058418</v>
       </c>
       <c r="BA59" s="15" t="n">
-        <v>151058418</v>
+        <v>164866216</v>
       </c>
       <c r="BB59" s="15" t="n">
-        <v>164791637</v>
+        <v>69540703</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8897,148 +8897,148 @@
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16" t="n">
-        <v>23552779</v>
+        <v>34248148</v>
       </c>
       <c r="F60" s="16" t="n">
-        <v>34248148</v>
+        <v>34301225</v>
       </c>
       <c r="G60" s="16" t="n">
-        <v>34301225</v>
+        <v>36538834</v>
       </c>
       <c r="H60" s="16" t="n">
-        <v>36538834</v>
+        <v>39925392</v>
       </c>
       <c r="I60" s="16" t="n">
-        <v>39925392</v>
+        <v>42189692</v>
       </c>
       <c r="J60" s="16" t="n">
-        <v>42189692</v>
+        <v>41106186</v>
       </c>
       <c r="K60" s="16" t="n">
-        <v>41106186</v>
+        <v>39972725</v>
       </c>
       <c r="L60" s="16" t="n">
-        <v>39972725</v>
+        <v>41898032</v>
       </c>
       <c r="M60" s="16" t="n">
-        <v>41898032</v>
+        <v>39736161</v>
       </c>
       <c r="N60" s="16" t="n">
-        <v>39736161</v>
+        <v>40036776</v>
       </c>
       <c r="O60" s="16" t="n">
-        <v>40036776</v>
+        <v>39988930</v>
       </c>
       <c r="P60" s="16" t="n">
-        <v>39988930</v>
+        <v>40685865</v>
       </c>
       <c r="Q60" s="16" t="n">
-        <v>40685865</v>
+        <v>42383475</v>
       </c>
       <c r="R60" s="16" t="n">
-        <v>42383475</v>
+        <v>47688119</v>
       </c>
       <c r="S60" s="16" t="n">
-        <v>47688119</v>
+        <v>48978432</v>
       </c>
       <c r="T60" s="16" t="n">
-        <v>48978432</v>
+        <v>52159113</v>
       </c>
       <c r="U60" s="16" t="n">
-        <v>52159113</v>
+        <v>54998016</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>54998016</v>
+        <v>61943836</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>61943836</v>
+        <v>66310262</v>
       </c>
       <c r="X60" s="16" t="n">
-        <v>66310262</v>
+        <v>43528516</v>
       </c>
       <c r="Y60" s="16" t="n">
-        <v>43528516</v>
+        <v>47484456</v>
       </c>
       <c r="Z60" s="16" t="n">
-        <v>47484456</v>
+        <v>51017162</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>51017162</v>
+        <v>47422068</v>
       </c>
       <c r="AB60" s="16" t="n">
-        <v>47422068</v>
+        <v>40499524</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>40499524</v>
+        <v>55841236</v>
       </c>
       <c r="AD60" s="16" t="n">
-        <v>55841236</v>
+        <v>59016405</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>59016405</v>
+        <v>55055403</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>55055403</v>
+        <v>55921679</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>55921679</v>
+        <v>60454534</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>60454534</v>
+        <v>64104971</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>64104971</v>
+        <v>68333700</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>68333700</v>
+        <v>88679795</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>88679795</v>
+        <v>89041148</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>89041148</v>
+        <v>120710469</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>120710469</v>
+        <v>127905934</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>127905934</v>
+        <v>101448239</v>
       </c>
       <c r="AO60" s="16" t="n">
-        <v>101448239</v>
+        <v>110556766</v>
       </c>
       <c r="AP60" s="16" t="n">
-        <v>110556766</v>
+        <v>146546027</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>146546027</v>
+        <v>171199991</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>171199991</v>
+        <v>135906322</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>135906322</v>
+        <v>120959105</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>120959105</v>
+        <v>132413532</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>132413532</v>
+        <v>140332799</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>140332799</v>
+        <v>153061989</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>153061989</v>
+        <v>129609883</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>129609883</v>
+        <v>119415250</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>119415250</v>
-      </c>
-      <c r="AZ60" s="16" t="n">
         <v>107556117</v>
+      </c>
+      <c r="AZ60" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="BA60" s="16" t="s">
         <v>59</v>
@@ -9196,14 +9196,14 @@
       <c r="AY61" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AZ61" s="15" t="s">
-        <v>59</v>
+      <c r="AZ61" s="15" t="n">
+        <v>109632502</v>
       </c>
       <c r="BA61" s="15" t="n">
-        <v>109632502</v>
+        <v>81215723</v>
       </c>
       <c r="BB61" s="15" t="n">
-        <v>81215723</v>
+        <v>68717301</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9355,14 +9355,14 @@
       <c r="AY62" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AZ62" s="16" t="s">
-        <v>59</v>
+      <c r="AZ62" s="16" t="n">
+        <v>119815789</v>
       </c>
       <c r="BA62" s="16" t="n">
-        <v>119815789</v>
+        <v>81400802</v>
       </c>
       <c r="BB62" s="16" t="n">
-        <v>83300103</v>
+        <v>81511278</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9514,14 +9514,14 @@
       <c r="AY63" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AZ63" s="15" t="s">
-        <v>59</v>
+      <c r="AZ63" s="15" t="n">
+        <v>95165951</v>
       </c>
       <c r="BA63" s="15" t="n">
-        <v>95165951</v>
+        <v>113832506</v>
       </c>
       <c r="BB63" s="15" t="n">
-        <v>122879999</v>
+        <v>97025592</v>
       </c>
     </row>
   </sheetData>
